--- a/Compra Cartera/Mapeos_CON_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_CON_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="358">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1264,6 +1264,18 @@
   </si>
   <si>
     <t>Validaciones Generales CompraCartera_GYG /4. Búsqueda tipo relación contrato con involucrado</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2088,20 +2100,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -2197,7 +2202,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2264,7 +2269,6 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2277,12 +2281,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2354,6 +2352,17 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2411,20 +2420,20 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="87">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2904,7 +2913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2914,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="G127" workbookViewId="0">
+      <selection activeCell="N142" sqref="N142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2923,7 +2932,7 @@
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
@@ -2944,7 +2953,7 @@
     <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="74"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2954,94 +2963,94 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="49"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="34"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="41" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="35"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="103"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="74"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="98" t="s">
+      <c r="I7" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="100"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="108"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="82" t="s">
+      <c r="M7" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3050,7 +3059,7 @@
       <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="72" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -3093,71 +3102,71 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="42">
+      <c r="B9" s="41">
         <v>1</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="47">
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="113">
         <v>135</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="80" t="s">
+      <c r="K9" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="113"/>
-      <c r="M9" s="103">
+      <c r="L9" s="88"/>
+      <c r="M9" s="79">
         <v>135</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="P9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="62" t="s">
+      <c r="Q9" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="38"/>
+      <c r="R9" s="37"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="43">
+      <c r="B10" s="42">
         <v>2</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="33">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="114">
         <v>136</v>
       </c>
       <c r="J10" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="79" t="s">
+      <c r="K10" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="L10" s="113"/>
-      <c r="M10" s="33">
+      <c r="L10" s="88"/>
+      <c r="M10" s="32">
         <v>136</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -3172,33 +3181,33 @@
       <c r="Q10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="59"/>
+      <c r="R10" s="56"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>3</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="33">
+      <c r="E11" s="36"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="114">
         <v>137</v>
       </c>
       <c r="J11" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="L11" s="113"/>
-      <c r="M11" s="33">
+      <c r="L11" s="88"/>
+      <c r="M11" s="32">
         <v>137</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -3213,33 +3222,33 @@
       <c r="Q11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="36"/>
+      <c r="R11" s="35"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="43">
+      <c r="B12" s="42">
         <v>4</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="33">
+      <c r="E12" s="36"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="114">
         <v>138</v>
       </c>
       <c r="J12" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="K12" s="79" t="s">
+      <c r="K12" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="L12" s="113"/>
-      <c r="M12" s="33">
+      <c r="L12" s="88"/>
+      <c r="M12" s="32">
         <v>138</v>
       </c>
       <c r="N12" s="31" t="s">
@@ -3254,33 +3263,33 @@
       <c r="Q12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="36"/>
+      <c r="R12" s="35"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="51">
+      <c r="B13" s="48">
         <v>5</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="33">
+      <c r="E13" s="36"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="114">
         <v>139</v>
       </c>
       <c r="J13" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="K13" s="79" t="s">
+      <c r="K13" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="L13" s="114"/>
-      <c r="M13" s="43">
+      <c r="L13" s="89"/>
+      <c r="M13" s="42">
         <v>3</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -3295,33 +3304,33 @@
       <c r="Q13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="36"/>
+      <c r="R13" s="35"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="43">
+      <c r="B14" s="42">
         <v>6</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="61">
+      <c r="E14" s="36"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="115">
         <v>140</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="L14" s="114"/>
-      <c r="M14" s="33">
+      <c r="L14" s="89"/>
+      <c r="M14" s="32">
         <v>139</v>
       </c>
       <c r="N14" s="31" t="s">
@@ -3336,33 +3345,33 @@
       <c r="Q14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="36"/>
+      <c r="R14" s="35"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="43">
+      <c r="B15" s="42">
         <v>7</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="33">
+      <c r="E15" s="36"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="114">
         <v>141</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="K15" s="79" t="s">
+      <c r="K15" s="76" t="s">
         <v>352</v>
       </c>
-      <c r="L15" s="114"/>
-      <c r="M15" s="33">
+      <c r="L15" s="89"/>
+      <c r="M15" s="32">
         <v>139</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -3377,33 +3386,33 @@
       <c r="Q15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="36"/>
+      <c r="R15" s="35"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="51">
+      <c r="B16" s="48">
         <v>8</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="61">
+      <c r="E16" s="36"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="115">
         <v>142</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="K16" s="79" t="s">
+      <c r="K16" s="76" t="s">
         <v>353</v>
       </c>
-      <c r="L16" s="114"/>
-      <c r="M16" s="33">
+      <c r="L16" s="89"/>
+      <c r="M16" s="32">
         <v>139</v>
       </c>
       <c r="N16" s="31" t="s">
@@ -3418,33 +3427,33 @@
       <c r="Q16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="36"/>
-    </row>
-    <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="43">
+      <c r="R16" s="35"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="42">
         <v>9</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="32">
+      <c r="E17" s="36"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="114">
         <v>143</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="K17" s="81" t="s">
+      <c r="K17" s="76" t="s">
         <v>351</v>
       </c>
-      <c r="L17" s="114"/>
-      <c r="M17" s="33">
+      <c r="L17" s="89"/>
+      <c r="M17" s="32">
         <v>139</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -3459,24 +3468,33 @@
       <c r="Q17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="59"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="43">
+      <c r="B18" s="42">
         <v>10</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="J18" s="106"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="33">
+      <c r="E18" s="36"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="114">
+        <v>144</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="L18" s="89"/>
+      <c r="M18" s="32">
         <v>139</v>
       </c>
       <c r="N18" s="31" t="s">
@@ -3491,23 +3509,33 @@
       <c r="Q18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="36"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="51">
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="48">
         <v>11</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="33">
+      <c r="E19" s="36"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="116">
+        <v>145</v>
+      </c>
+      <c r="J19" s="109" t="s">
+        <v>356</v>
+      </c>
+      <c r="K19" s="78" t="s">
+        <v>357</v>
+      </c>
+      <c r="L19" s="89"/>
+      <c r="M19" s="32">
         <v>139</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -3522,23 +3550,23 @@
       <c r="Q19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="36"/>
+      <c r="R19" s="35"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="43">
+      <c r="B20" s="42">
         <v>12</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="33">
+      <c r="E20" s="36"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="32">
         <v>139</v>
       </c>
       <c r="N20" s="31" t="s">
@@ -3553,23 +3581,23 @@
       <c r="Q20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="59"/>
+      <c r="R20" s="56"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="43">
+      <c r="B21" s="42">
         <v>13</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="33">
+      <c r="E21" s="36"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="32">
         <v>139</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -3584,23 +3612,23 @@
       <c r="Q21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="59"/>
+      <c r="R21" s="56"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="51">
+      <c r="B22" s="48">
         <v>14</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="61">
+      <c r="E22" s="36"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="58">
         <v>140</v>
       </c>
       <c r="N22" s="31" t="s">
@@ -3615,23 +3643,23 @@
       <c r="Q22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="36"/>
+      <c r="R22" s="35"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="43">
+      <c r="B23" s="42">
         <v>15</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="33">
+      <c r="E23" s="36"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="32">
         <v>139</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -3646,23 +3674,23 @@
       <c r="Q23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="36"/>
+      <c r="R23" s="35"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="43">
+      <c r="B24" s="42">
         <v>16</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="61">
+      <c r="E24" s="61"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="58">
         <v>140</v>
       </c>
       <c r="N24" s="31" t="s">
@@ -3677,23 +3705,23 @@
       <c r="Q24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R24" s="36"/>
+      <c r="R24" s="35"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="51">
+      <c r="B25" s="48">
         <v>17</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="D25" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="33">
+      <c r="E25" s="62"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="32">
         <v>139</v>
       </c>
       <c r="N25" s="31" t="s">
@@ -3708,23 +3736,23 @@
       <c r="Q25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="36"/>
+      <c r="R25" s="35"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="43">
+      <c r="B26" s="42">
         <v>18</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="61">
+      <c r="E26" s="62"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="58">
         <v>140</v>
       </c>
       <c r="N26" s="31" t="s">
@@ -3739,23 +3767,23 @@
       <c r="Q26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="36"/>
+      <c r="R26" s="35"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="43">
+      <c r="B27" s="42">
         <v>19</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="33">
+      <c r="E27" s="62"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="32">
         <v>139</v>
       </c>
       <c r="N27" s="31" t="s">
@@ -3770,23 +3798,23 @@
       <c r="Q27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R27" s="36"/>
+      <c r="R27" s="35"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="51">
-        <v>20</v>
-      </c>
-      <c r="C28" s="71" t="s">
+      <c r="B28" s="48">
+        <v>20</v>
+      </c>
+      <c r="C28" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="61">
+      <c r="E28" s="62"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="50"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="58">
         <v>140</v>
       </c>
       <c r="N28" s="31" t="s">
@@ -3801,23 +3829,23 @@
       <c r="Q28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R28" s="59"/>
+      <c r="R28" s="56"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="43">
+      <c r="B29" s="42">
         <v>21</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="33">
+      <c r="E29" s="62"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="32">
         <v>139</v>
       </c>
       <c r="N29" s="31" t="s">
@@ -3832,23 +3860,23 @@
       <c r="Q29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R29" s="36"/>
+      <c r="R29" s="35"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="43">
+      <c r="B30" s="42">
         <v>22</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="61">
+      <c r="E30" s="62"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="50"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="58">
         <v>140</v>
       </c>
       <c r="N30" s="31" t="s">
@@ -3863,23 +3891,23 @@
       <c r="Q30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="36"/>
+      <c r="R30" s="35"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="51">
+      <c r="B31" s="48">
         <v>23</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="33">
+      <c r="E31" s="62"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="32">
         <v>139</v>
       </c>
       <c r="N31" s="31" t="s">
@@ -3894,23 +3922,23 @@
       <c r="Q31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="59"/>
+      <c r="R31" s="56"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="43">
+      <c r="B32" s="42">
         <v>24</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="61">
+      <c r="E32" s="62"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="58">
         <v>140</v>
       </c>
       <c r="N32" s="31" t="s">
@@ -3925,23 +3953,23 @@
       <c r="Q32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="59"/>
+      <c r="R32" s="56"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="43">
+      <c r="B33" s="42">
         <v>25</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="77" t="s">
+      <c r="D33" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="33">
+      <c r="E33" s="62"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="32">
         <v>139</v>
       </c>
       <c r="N33" s="31" t="s">
@@ -3956,23 +3984,23 @@
       <c r="Q33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R33" s="36"/>
+      <c r="R33" s="35"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="51">
+      <c r="B34" s="48">
         <v>26</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="77" t="s">
+      <c r="D34" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="61">
+      <c r="E34" s="62"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="50"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="58">
         <v>140</v>
       </c>
       <c r="N34" s="31" t="s">
@@ -3987,23 +4015,23 @@
       <c r="Q34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="36"/>
+      <c r="R34" s="35"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="43">
+      <c r="B35" s="42">
         <v>27</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="77" t="s">
+      <c r="D35" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="33">
+      <c r="E35" s="62"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="50"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="32">
         <v>139</v>
       </c>
       <c r="N35" s="31" t="s">
@@ -4018,23 +4046,23 @@
       <c r="Q35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="36"/>
+      <c r="R35" s="35"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="43">
+      <c r="B36" s="42">
         <v>28</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="77" t="s">
+      <c r="D36" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="61">
+      <c r="E36" s="62"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="58">
         <v>140</v>
       </c>
       <c r="N36" s="31" t="s">
@@ -4049,23 +4077,23 @@
       <c r="Q36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R36" s="36"/>
+      <c r="R36" s="35"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="51">
+      <c r="B37" s="48">
         <v>29</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="33">
+      <c r="E37" s="62"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="32">
         <v>139</v>
       </c>
       <c r="N37" s="31" t="s">
@@ -4080,23 +4108,23 @@
       <c r="Q37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R37" s="36"/>
+      <c r="R37" s="35"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="43">
+      <c r="B38" s="42">
         <v>30</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="61">
+      <c r="E38" s="62"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="58">
         <v>140</v>
       </c>
       <c r="N38" s="31" t="s">
@@ -4111,23 +4139,23 @@
       <c r="Q38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R38" s="36"/>
+      <c r="R38" s="35"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="43">
+      <c r="B39" s="42">
         <v>31</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="33">
+      <c r="E39" s="62"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="50"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="32">
         <v>139</v>
       </c>
       <c r="N39" s="31" t="s">
@@ -4142,23 +4170,23 @@
       <c r="Q39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="59"/>
+      <c r="R39" s="56"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="51">
+      <c r="B40" s="48">
         <v>32</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="61">
+      <c r="E40" s="36"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="50"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="58">
         <v>140</v>
       </c>
       <c r="N40" s="31" t="s">
@@ -4173,23 +4201,23 @@
       <c r="Q40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R40" s="36"/>
+      <c r="R40" s="35"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="43">
+      <c r="B41" s="42">
         <v>33</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="77" t="s">
+      <c r="D41" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="33">
+      <c r="E41" s="36"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="50"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="32">
         <v>139</v>
       </c>
       <c r="N41" s="31" t="s">
@@ -4204,23 +4232,23 @@
       <c r="Q41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R41" s="36"/>
+      <c r="R41" s="35"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="43">
+      <c r="B42" s="42">
         <v>34</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="61">
+      <c r="E42" s="36"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="50"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="58">
         <v>140</v>
       </c>
       <c r="N42" s="31" t="s">
@@ -4235,23 +4263,23 @@
       <c r="Q42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="59"/>
+      <c r="R42" s="56"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="51">
+      <c r="B43" s="48">
         <v>35</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="77" t="s">
+      <c r="D43" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="33">
+      <c r="E43" s="36"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="50"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="32">
         <v>139</v>
       </c>
       <c r="N43" s="31" t="s">
@@ -4266,23 +4294,23 @@
       <c r="Q43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="59"/>
+      <c r="R43" s="56"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="43">
+      <c r="B44" s="42">
         <v>36</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="61">
+      <c r="E44" s="36"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="58">
         <v>140</v>
       </c>
       <c r="N44" s="31" t="s">
@@ -4297,23 +4325,23 @@
       <c r="Q44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R44" s="36"/>
+      <c r="R44" s="35"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="43">
+      <c r="B45" s="42">
         <v>37</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="33">
+      <c r="E45" s="36"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="32">
         <v>139</v>
       </c>
       <c r="N45" s="31" t="s">
@@ -4328,23 +4356,23 @@
       <c r="Q45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R45" s="36"/>
+      <c r="R45" s="35"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="51">
+      <c r="B46" s="48">
         <v>38</v>
       </c>
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="77" t="s">
+      <c r="D46" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="33">
+      <c r="E46" s="36"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="32">
         <v>139</v>
       </c>
       <c r="N46" s="31" t="s">
@@ -4359,23 +4387,23 @@
       <c r="Q46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="36"/>
+      <c r="R46" s="35"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="43">
+      <c r="B47" s="42">
         <v>39</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="77" t="s">
+      <c r="D47" s="74" t="s">
         <v>184</v>
       </c>
       <c r="E47" s="24"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="33">
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="32">
         <v>139</v>
       </c>
       <c r="N47" s="31" t="s">
@@ -4390,23 +4418,23 @@
       <c r="Q47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R47" s="36"/>
+      <c r="R47" s="35"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="43">
+      <c r="B48" s="42">
         <v>40</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="77" t="s">
+      <c r="D48" s="74" t="s">
         <v>184</v>
       </c>
       <c r="E48" s="24"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="61">
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="58">
         <v>140</v>
       </c>
       <c r="N48" s="31" t="s">
@@ -4421,23 +4449,23 @@
       <c r="Q48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="36"/>
+      <c r="R48" s="35"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="51">
+      <c r="B49" s="48">
         <v>41</v>
       </c>
-      <c r="C49" s="71" t="s">
+      <c r="C49" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="77" t="s">
+      <c r="D49" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="24"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="61">
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="58">
         <v>140</v>
       </c>
       <c r="N49" s="31" t="s">
@@ -4452,23 +4480,23 @@
       <c r="Q49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="36"/>
+      <c r="R49" s="35"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="43">
+      <c r="B50" s="42">
         <v>42</v>
       </c>
-      <c r="C50" s="71" t="s">
+      <c r="C50" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="77" t="s">
+      <c r="D50" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="33">
+      <c r="F50" s="49"/>
+      <c r="G50" s="50"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="32">
         <v>139</v>
       </c>
       <c r="N50" s="31" t="s">
@@ -4483,23 +4511,23 @@
       <c r="Q50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="59"/>
+      <c r="R50" s="56"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="43">
+      <c r="B51" s="42">
         <v>43</v>
       </c>
-      <c r="C51" s="71" t="s">
+      <c r="C51" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="77" t="s">
+      <c r="D51" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="24"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="61">
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="58">
         <v>140</v>
       </c>
       <c r="N51" s="31" t="s">
@@ -4514,24 +4542,24 @@
       <c r="Q51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R51" s="36"/>
+      <c r="R51" s="35"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="51">
+      <c r="B52" s="48">
         <v>44</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="77" t="s">
+      <c r="D52" s="74" t="s">
         <v>185</v>
       </c>
       <c r="E52" s="24"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="33">
-        <v>136</v>
+      <c r="F52" s="49"/>
+      <c r="G52" s="50"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="32">
+        <v>144</v>
       </c>
       <c r="N52" s="31" t="s">
         <v>272</v>
@@ -4545,23 +4573,23 @@
       <c r="Q52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R52" s="36"/>
+      <c r="R52" s="35"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="43">
+      <c r="B53" s="42">
         <v>45</v>
       </c>
-      <c r="C53" s="71" t="s">
+      <c r="C53" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="77" t="s">
+      <c r="D53" s="74" t="s">
         <v>186</v>
       </c>
       <c r="E53" s="24"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="43">
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="42">
         <v>11</v>
       </c>
       <c r="N53" s="31" t="s">
@@ -4576,54 +4604,54 @@
       <c r="Q53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="59"/>
+      <c r="R53" s="56"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="43">
+      <c r="B54" s="42">
         <v>46</v>
       </c>
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="77" t="s">
+      <c r="D54" s="74" t="s">
         <v>177</v>
       </c>
       <c r="E54" s="24"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="56">
-        <v>140</v>
-      </c>
-      <c r="N54" s="63" t="s">
+      <c r="F54" s="49"/>
+      <c r="G54" s="50"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="53">
+        <v>145</v>
+      </c>
+      <c r="N54" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="O54" s="63" t="s">
+      <c r="O54" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="P54" s="63" t="s">
+      <c r="P54" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="Q54" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="105"/>
+      <c r="Q54" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="81"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="51">
+      <c r="B55" s="48">
         <v>47</v>
       </c>
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="74" t="s">
         <v>186</v>
       </c>
       <c r="E55" s="24"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="61">
+      <c r="F55" s="49"/>
+      <c r="G55" s="50"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="58">
         <v>140</v>
       </c>
       <c r="N55" s="31" t="s">
@@ -4638,23 +4666,23 @@
       <c r="Q55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R55" s="36"/>
+      <c r="R55" s="35"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="43">
+      <c r="B56" s="42">
         <v>48</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="77" t="s">
+      <c r="D56" s="74" t="s">
         <v>187</v>
       </c>
       <c r="E56" s="24"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="61">
+      <c r="F56" s="49"/>
+      <c r="G56" s="50"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="58">
         <v>140</v>
       </c>
       <c r="N56" s="31" t="s">
@@ -4669,23 +4697,23 @@
       <c r="Q56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="36"/>
+      <c r="R56" s="35"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="43">
+      <c r="B57" s="42">
         <v>49</v>
       </c>
-      <c r="C57" s="71" t="s">
+      <c r="C57" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="77" t="s">
+      <c r="D57" s="74" t="s">
         <v>183</v>
       </c>
       <c r="E57" s="24"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="61">
+      <c r="F57" s="49"/>
+      <c r="G57" s="50"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="58">
         <v>140</v>
       </c>
       <c r="N57" s="31" t="s">
@@ -4700,23 +4728,23 @@
       <c r="Q57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="36"/>
+      <c r="R57" s="35"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="51">
+      <c r="B58" s="48">
         <v>50</v>
       </c>
-      <c r="C58" s="71" t="s">
+      <c r="C58" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="77" t="s">
+      <c r="D58" s="74" t="s">
         <v>188</v>
       </c>
       <c r="E58" s="24"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="61">
+      <c r="F58" s="49"/>
+      <c r="G58" s="50"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="58">
         <v>140</v>
       </c>
       <c r="N58" s="31" t="s">
@@ -4731,23 +4759,23 @@
       <c r="Q58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R58" s="36"/>
+      <c r="R58" s="35"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="43">
+      <c r="B59" s="42">
         <v>51</v>
       </c>
-      <c r="C59" s="71" t="s">
+      <c r="C59" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="77" t="s">
+      <c r="D59" s="74" t="s">
         <v>177</v>
       </c>
       <c r="E59" s="24"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="61">
+      <c r="F59" s="49"/>
+      <c r="G59" s="50"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="58">
         <v>140</v>
       </c>
       <c r="N59" s="31" t="s">
@@ -4762,23 +4790,23 @@
       <c r="Q59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R59" s="36"/>
+      <c r="R59" s="35"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="43">
+      <c r="B60" s="42">
         <v>52</v>
       </c>
-      <c r="C60" s="71" t="s">
+      <c r="C60" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="77" t="s">
+      <c r="D60" s="74" t="s">
         <v>177</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="61">
+      <c r="F60" s="49"/>
+      <c r="G60" s="50"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="58">
         <v>140</v>
       </c>
       <c r="N60" s="31" t="s">
@@ -4793,23 +4821,23 @@
       <c r="Q60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R60" s="36"/>
+      <c r="R60" s="35"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="51">
+      <c r="B61" s="48">
         <v>53</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="C61" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="77" t="s">
+      <c r="D61" s="74" t="s">
         <v>177</v>
       </c>
       <c r="E61" s="24"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="61">
+      <c r="F61" s="49"/>
+      <c r="G61" s="50"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="58">
         <v>140</v>
       </c>
       <c r="N61" s="31" t="s">
@@ -4824,23 +4852,23 @@
       <c r="Q61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R61" s="36"/>
+      <c r="R61" s="35"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="43">
+      <c r="B62" s="42">
         <v>54</v>
       </c>
-      <c r="C62" s="71" t="s">
+      <c r="C62" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="77" t="s">
+      <c r="D62" s="74" t="s">
         <v>189</v>
       </c>
       <c r="E62" s="24"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="61">
+      <c r="F62" s="49"/>
+      <c r="G62" s="50"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="58">
         <v>140</v>
       </c>
       <c r="N62" s="31" t="s">
@@ -4855,23 +4883,23 @@
       <c r="Q62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R62" s="36"/>
+      <c r="R62" s="35"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="43">
+      <c r="B63" s="42">
         <v>55</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="77" t="s">
+      <c r="D63" s="74" t="s">
         <v>185</v>
       </c>
       <c r="E63" s="24"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="61">
+      <c r="F63" s="49"/>
+      <c r="G63" s="50"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="58">
         <v>140</v>
       </c>
       <c r="N63" s="31" t="s">
@@ -4886,23 +4914,23 @@
       <c r="Q63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R63" s="36"/>
+      <c r="R63" s="35"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="51">
+      <c r="B64" s="48">
         <v>56</v>
       </c>
-      <c r="C64" s="71" t="s">
+      <c r="C64" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="77" t="s">
+      <c r="D64" s="74" t="s">
         <v>177</v>
       </c>
       <c r="E64" s="24"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="33">
+      <c r="F64" s="49"/>
+      <c r="G64" s="50"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="32">
         <v>139</v>
       </c>
       <c r="N64" s="31" t="s">
@@ -4917,23 +4945,23 @@
       <c r="Q64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R64" s="36"/>
+      <c r="R64" s="35"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="43">
+      <c r="B65" s="42">
         <v>57</v>
       </c>
-      <c r="C65" s="71" t="s">
+      <c r="C65" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="77" t="s">
+      <c r="D65" s="74" t="s">
         <v>190</v>
       </c>
       <c r="E65" s="24"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="53"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="33">
+      <c r="F65" s="49"/>
+      <c r="G65" s="50"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="32">
         <v>139</v>
       </c>
       <c r="N65" s="31" t="s">
@@ -4948,23 +4976,23 @@
       <c r="Q65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R65" s="36"/>
+      <c r="R65" s="35"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="43">
+      <c r="B66" s="42">
         <v>58</v>
       </c>
-      <c r="C66" s="71" t="s">
+      <c r="C66" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D66" s="77" t="s">
+      <c r="D66" s="74" t="s">
         <v>182</v>
       </c>
       <c r="E66" s="24"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="61">
+      <c r="F66" s="49"/>
+      <c r="G66" s="50"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="58">
         <v>140</v>
       </c>
       <c r="N66" s="31" t="s">
@@ -4979,23 +5007,23 @@
       <c r="Q66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R66" s="36"/>
+      <c r="R66" s="35"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="51">
+      <c r="B67" s="48">
         <v>59</v>
       </c>
-      <c r="C67" s="71" t="s">
+      <c r="C67" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="77" t="s">
+      <c r="D67" s="74" t="s">
         <v>191</v>
       </c>
       <c r="E67" s="24"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="53"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="61">
+      <c r="F67" s="49"/>
+      <c r="G67" s="50"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="58">
         <v>140</v>
       </c>
       <c r="N67" s="31" t="s">
@@ -5010,23 +5038,23 @@
       <c r="Q67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R67" s="36"/>
+      <c r="R67" s="35"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="43">
+      <c r="B68" s="42">
         <v>60</v>
       </c>
-      <c r="C68" s="71" t="s">
+      <c r="C68" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="D68" s="77" t="s">
+      <c r="D68" s="74" t="s">
         <v>177</v>
       </c>
       <c r="E68" s="24"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="61">
+      <c r="F68" s="49"/>
+      <c r="G68" s="50"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="58">
         <v>140</v>
       </c>
       <c r="N68" s="31" t="s">
@@ -5041,85 +5069,85 @@
       <c r="Q68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R68" s="36"/>
+      <c r="R68" s="35"/>
     </row>
     <row r="69" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="43">
+      <c r="B69" s="42">
         <v>61</v>
       </c>
-      <c r="C69" s="71" t="s">
+      <c r="C69" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="77" t="s">
+      <c r="D69" s="74" t="s">
         <v>192</v>
       </c>
       <c r="E69" s="24"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="107">
+      <c r="F69" s="49"/>
+      <c r="G69" s="50"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="82">
         <v>140</v>
       </c>
-      <c r="N69" s="60" t="s">
+      <c r="N69" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="O69" s="108" t="s">
+      <c r="O69" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="P69" s="60" t="s">
+      <c r="P69" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q69" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" s="54"/>
+      <c r="Q69" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="51"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="51">
+      <c r="B70" s="48">
         <v>62</v>
       </c>
-      <c r="C70" s="71" t="s">
+      <c r="C70" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="D70" s="77" t="s">
+      <c r="D70" s="74" t="s">
         <v>193</v>
       </c>
       <c r="E70" s="24"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="47">
+      <c r="F70" s="49"/>
+      <c r="G70" s="50"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="44">
         <v>135</v>
       </c>
-      <c r="N70" s="104" t="s">
+      <c r="N70" s="80" t="s">
         <v>336</v>
       </c>
-      <c r="O70" s="104" t="s">
+      <c r="O70" s="80" t="s">
         <v>274</v>
       </c>
-      <c r="P70" s="104" t="s">
+      <c r="P70" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="Q70" s="104" t="s">
+      <c r="Q70" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="R70" s="55"/>
+      <c r="R70" s="52"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="43">
+      <c r="B71" s="42">
         <v>63</v>
       </c>
-      <c r="C71" s="71" t="s">
+      <c r="C71" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="77" t="s">
+      <c r="D71" s="74" t="s">
         <v>177</v>
       </c>
       <c r="E71" s="24"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="53"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="33">
+      <c r="F71" s="49"/>
+      <c r="G71" s="50"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="32">
         <v>139</v>
       </c>
       <c r="N71" s="24" t="s">
@@ -5134,23 +5162,23 @@
       <c r="Q71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R71" s="34"/>
+      <c r="R71" s="33"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="43">
+      <c r="B72" s="42">
         <v>64</v>
       </c>
-      <c r="C72" s="71" t="s">
+      <c r="C72" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="77" t="s">
+      <c r="D72" s="74" t="s">
         <v>193</v>
       </c>
       <c r="E72" s="24"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="61">
+      <c r="F72" s="49"/>
+      <c r="G72" s="50"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="58">
         <v>140</v>
       </c>
       <c r="N72" s="24" t="s">
@@ -5165,23 +5193,23 @@
       <c r="Q72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R72" s="34"/>
+      <c r="R72" s="33"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="51">
+      <c r="B73" s="48">
         <v>65</v>
       </c>
-      <c r="C73" s="71" t="s">
+      <c r="C73" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="D73" s="77" t="s">
+      <c r="D73" s="74" t="s">
         <v>193</v>
       </c>
       <c r="E73" s="24"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="53"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="33">
+      <c r="F73" s="49"/>
+      <c r="G73" s="50"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="32">
         <v>139</v>
       </c>
       <c r="N73" s="24" t="s">
@@ -5196,23 +5224,23 @@
       <c r="Q73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R73" s="34"/>
+      <c r="R73" s="33"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="43">
+      <c r="B74" s="42">
         <v>66</v>
       </c>
-      <c r="C74" s="71" t="s">
+      <c r="C74" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="D74" s="77" t="s">
+      <c r="D74" s="74" t="s">
         <v>177</v>
       </c>
       <c r="E74" s="24"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="61">
+      <c r="F74" s="49"/>
+      <c r="G74" s="50"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="58">
         <v>140</v>
       </c>
       <c r="N74" s="24" t="s">
@@ -5227,23 +5255,23 @@
       <c r="Q74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R74" s="34"/>
+      <c r="R74" s="33"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="43">
+      <c r="B75" s="42">
         <v>67</v>
       </c>
-      <c r="C75" s="71" t="s">
+      <c r="C75" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="77" t="s">
+      <c r="D75" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="24"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="53"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="33">
+      <c r="F75" s="49"/>
+      <c r="G75" s="50"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="32">
         <v>139</v>
       </c>
       <c r="N75" s="24" t="s">
@@ -5258,23 +5286,23 @@
       <c r="Q75" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R75" s="34"/>
+      <c r="R75" s="33"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="51">
+      <c r="B76" s="48">
         <v>68</v>
       </c>
-      <c r="C76" s="71" t="s">
+      <c r="C76" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="77" t="s">
+      <c r="D76" s="74" t="s">
         <v>194</v>
       </c>
       <c r="E76" s="24"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="61">
+      <c r="F76" s="49"/>
+      <c r="G76" s="50"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="58">
         <v>140</v>
       </c>
       <c r="N76" s="24" t="s">
@@ -5289,23 +5317,23 @@
       <c r="Q76" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R76" s="34"/>
+      <c r="R76" s="33"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="43">
+      <c r="B77" s="42">
         <v>69</v>
       </c>
-      <c r="C77" s="71" t="s">
+      <c r="C77" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="77" t="s">
+      <c r="D77" s="74" t="s">
         <v>195</v>
       </c>
       <c r="E77" s="24"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="53"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="33">
+      <c r="F77" s="49"/>
+      <c r="G77" s="50"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="32">
         <v>139</v>
       </c>
       <c r="N77" s="24" t="s">
@@ -5320,23 +5348,23 @@
       <c r="Q77" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R77" s="34"/>
+      <c r="R77" s="33"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="43">
+      <c r="B78" s="42">
         <v>70</v>
       </c>
-      <c r="C78" s="71" t="s">
+      <c r="C78" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="D78" s="77" t="s">
+      <c r="D78" s="74" t="s">
         <v>36</v>
       </c>
       <c r="E78" s="24"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="61">
+      <c r="F78" s="49"/>
+      <c r="G78" s="50"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="58">
         <v>140</v>
       </c>
       <c r="N78" s="24" t="s">
@@ -5351,23 +5379,23 @@
       <c r="Q78" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R78" s="34"/>
+      <c r="R78" s="33"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="51">
+      <c r="B79" s="48">
         <v>71</v>
       </c>
-      <c r="C79" s="71" t="s">
+      <c r="C79" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="D79" s="77" t="s">
+      <c r="D79" s="74" t="s">
         <v>184</v>
       </c>
       <c r="E79" s="24"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="53"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="33">
+      <c r="F79" s="49"/>
+      <c r="G79" s="50"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="32">
         <v>139</v>
       </c>
       <c r="N79" s="24" t="s">
@@ -5382,23 +5410,23 @@
       <c r="Q79" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R79" s="34"/>
+      <c r="R79" s="33"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="43">
+      <c r="B80" s="42">
         <v>72</v>
       </c>
-      <c r="C80" s="71" t="s">
+      <c r="C80" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="D80" s="77" t="s">
+      <c r="D80" s="74" t="s">
         <v>184</v>
       </c>
       <c r="E80" s="24"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="61">
+      <c r="F80" s="49"/>
+      <c r="G80" s="50"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="58">
         <v>140</v>
       </c>
       <c r="N80" s="24" t="s">
@@ -5413,23 +5441,23 @@
       <c r="Q80" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R80" s="34"/>
+      <c r="R80" s="33"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B81" s="43">
+      <c r="B81" s="42">
         <v>73</v>
       </c>
-      <c r="C81" s="71" t="s">
+      <c r="C81" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="D81" s="77" t="s">
+      <c r="D81" s="74" t="s">
         <v>184</v>
       </c>
       <c r="E81" s="24"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="53"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="33">
+      <c r="F81" s="49"/>
+      <c r="G81" s="50"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="32">
         <v>139</v>
       </c>
       <c r="N81" s="24" t="s">
@@ -5444,23 +5472,23 @@
       <c r="Q81" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R81" s="34"/>
+      <c r="R81" s="33"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="51">
+      <c r="B82" s="48">
         <v>74</v>
       </c>
-      <c r="C82" s="71" t="s">
+      <c r="C82" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="D82" s="77" t="s">
+      <c r="D82" s="74" t="s">
         <v>184</v>
       </c>
       <c r="E82" s="24"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="33">
+      <c r="F82" s="49"/>
+      <c r="G82" s="50"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="32">
         <v>139</v>
       </c>
       <c r="N82" s="24" t="s">
@@ -5475,23 +5503,23 @@
       <c r="Q82" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R82" s="34"/>
+      <c r="R82" s="33"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="43">
+      <c r="B83" s="42">
         <v>75</v>
       </c>
-      <c r="C83" s="71" t="s">
+      <c r="C83" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="D83" s="77" t="s">
+      <c r="D83" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="53"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="61">
+      <c r="F83" s="49"/>
+      <c r="G83" s="50"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="58">
         <v>140</v>
       </c>
       <c r="N83" s="24" t="s">
@@ -5506,23 +5534,23 @@
       <c r="Q83" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R83" s="34"/>
+      <c r="R83" s="33"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="43">
+      <c r="B84" s="42">
         <v>76</v>
       </c>
-      <c r="C84" s="71" t="s">
+      <c r="C84" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="D84" s="77" t="s">
+      <c r="D84" s="74" t="s">
         <v>193</v>
       </c>
       <c r="E84" s="24"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="33">
+      <c r="F84" s="49"/>
+      <c r="G84" s="50"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="32">
         <v>139</v>
       </c>
       <c r="N84" s="24" t="s">
@@ -5537,23 +5565,23 @@
       <c r="Q84" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R84" s="34"/>
+      <c r="R84" s="33"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="51">
+      <c r="B85" s="48">
         <v>77</v>
       </c>
-      <c r="C85" s="71" t="s">
+      <c r="C85" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="D85" s="77" t="s">
+      <c r="D85" s="74" t="s">
         <v>193</v>
       </c>
       <c r="E85" s="24"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="53"/>
-      <c r="L85" s="39"/>
-      <c r="M85" s="61">
+      <c r="F85" s="49"/>
+      <c r="G85" s="50"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="58">
         <v>140</v>
       </c>
       <c r="N85" s="24" t="s">
@@ -5568,23 +5596,23 @@
       <c r="Q85" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R85" s="34"/>
+      <c r="R85" s="33"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B86" s="43">
+      <c r="B86" s="42">
         <v>78</v>
       </c>
-      <c r="C86" s="71" t="s">
+      <c r="C86" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="D86" s="77" t="s">
+      <c r="D86" s="74" t="s">
         <v>193</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="33">
+      <c r="F86" s="49"/>
+      <c r="G86" s="50"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="32">
         <v>139</v>
       </c>
       <c r="N86" s="24" t="s">
@@ -5599,23 +5627,23 @@
       <c r="Q86" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R86" s="34"/>
+      <c r="R86" s="33"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="43">
+      <c r="B87" s="42">
         <v>79</v>
       </c>
-      <c r="C87" s="71" t="s">
+      <c r="C87" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D87" s="77" t="s">
+      <c r="D87" s="74" t="s">
         <v>178</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="53"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="61">
+      <c r="F87" s="49"/>
+      <c r="G87" s="50"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="58">
         <v>140</v>
       </c>
       <c r="N87" s="24" t="s">
@@ -5630,23 +5658,23 @@
       <c r="Q87" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R87" s="34"/>
+      <c r="R87" s="33"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="51">
+      <c r="B88" s="48">
         <v>80</v>
       </c>
-      <c r="C88" s="71" t="s">
+      <c r="C88" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D88" s="77" t="s">
+      <c r="D88" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="33">
+      <c r="F88" s="49"/>
+      <c r="G88" s="50"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="32">
         <v>139</v>
       </c>
       <c r="N88" s="24" t="s">
@@ -5661,23 +5689,23 @@
       <c r="Q88" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="R88" s="34"/>
+      <c r="R88" s="33"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="43">
+      <c r="B89" s="42">
         <v>81</v>
       </c>
-      <c r="C89" s="71" t="s">
+      <c r="C89" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="D89" s="77" t="s">
+      <c r="D89" s="74" t="s">
         <v>199</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="53"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="33">
+      <c r="F89" s="49"/>
+      <c r="G89" s="50"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="32">
         <v>139</v>
       </c>
       <c r="N89" s="24" t="s">
@@ -5692,23 +5720,23 @@
       <c r="Q89" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R89" s="34"/>
+      <c r="R89" s="33"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="43">
+      <c r="B90" s="42">
         <v>82</v>
       </c>
-      <c r="C90" s="71" t="s">
+      <c r="C90" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="77" t="s">
+      <c r="D90" s="74" t="s">
         <v>186</v>
       </c>
       <c r="E90" s="24"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="53"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="61">
+      <c r="F90" s="49"/>
+      <c r="G90" s="50"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="58">
         <v>140</v>
       </c>
       <c r="N90" s="24" t="s">
@@ -5723,23 +5751,23 @@
       <c r="Q90" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R90" s="34"/>
+      <c r="R90" s="33"/>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="51">
+      <c r="B91" s="48">
         <v>83</v>
       </c>
-      <c r="C91" s="68" t="s">
+      <c r="C91" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="D91" s="68" t="s">
+      <c r="D91" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E91" s="24"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="53"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="33">
+      <c r="F91" s="49"/>
+      <c r="G91" s="50"/>
+      <c r="L91" s="38"/>
+      <c r="M91" s="32">
         <v>139</v>
       </c>
       <c r="N91" s="24" t="s">
@@ -5754,23 +5782,23 @@
       <c r="Q91" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R91" s="34"/>
+      <c r="R91" s="33"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="43">
+      <c r="B92" s="42">
         <v>84</v>
       </c>
-      <c r="C92" s="68" t="s">
+      <c r="C92" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D92" s="68" t="s">
+      <c r="D92" s="65" t="s">
         <v>177</v>
       </c>
       <c r="E92" s="24"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="53"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="61">
+      <c r="F92" s="49"/>
+      <c r="G92" s="50"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="58">
         <v>140</v>
       </c>
       <c r="N92" s="24" t="s">
@@ -5785,23 +5813,23 @@
       <c r="Q92" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R92" s="34"/>
+      <c r="R92" s="33"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="43">
+      <c r="B93" s="42">
         <v>85</v>
       </c>
-      <c r="C93" s="68" t="s">
+      <c r="C93" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D93" s="68" t="s">
+      <c r="D93" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E93" s="24"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="53"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="33">
+      <c r="F93" s="49"/>
+      <c r="G93" s="50"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="32">
         <v>139</v>
       </c>
       <c r="N93" s="24" t="s">
@@ -5816,23 +5844,23 @@
       <c r="Q93" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R93" s="34"/>
+      <c r="R93" s="33"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="51">
+      <c r="B94" s="48">
         <v>86</v>
       </c>
-      <c r="C94" s="68" t="s">
+      <c r="C94" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="D94" s="68" t="s">
+      <c r="D94" s="65" t="s">
         <v>196</v>
       </c>
       <c r="E94" s="24"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="53"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="33">
+      <c r="F94" s="49"/>
+      <c r="G94" s="50"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="32">
         <v>139</v>
       </c>
       <c r="N94" s="24" t="s">
@@ -5847,23 +5875,23 @@
       <c r="Q94" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R94" s="34"/>
+      <c r="R94" s="33"/>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="43">
+      <c r="B95" s="42">
         <v>87</v>
       </c>
-      <c r="C95" s="68" t="s">
+      <c r="C95" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="D95" s="68" t="s">
+      <c r="D95" s="65" t="s">
         <v>193</v>
       </c>
       <c r="E95" s="24"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="53"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="33">
+      <c r="F95" s="49"/>
+      <c r="G95" s="50"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="32">
         <v>139</v>
       </c>
       <c r="N95" s="24" t="s">
@@ -5878,23 +5906,23 @@
       <c r="Q95" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R95" s="34"/>
+      <c r="R95" s="33"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="43">
+      <c r="B96" s="42">
         <v>88</v>
       </c>
-      <c r="C96" s="68" t="s">
+      <c r="C96" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="D96" s="68" t="s">
+      <c r="D96" s="65" t="s">
         <v>177</v>
       </c>
       <c r="E96" s="24"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="53"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="61">
+      <c r="F96" s="49"/>
+      <c r="G96" s="50"/>
+      <c r="L96" s="38"/>
+      <c r="M96" s="58">
         <v>140</v>
       </c>
       <c r="N96" s="24" t="s">
@@ -5909,23 +5937,23 @@
       <c r="Q96" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R96" s="34"/>
+      <c r="R96" s="33"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="51">
+      <c r="B97" s="48">
         <v>89</v>
       </c>
-      <c r="C97" s="68" t="s">
+      <c r="C97" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="68" t="s">
+      <c r="D97" s="65" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="53"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="61">
+      <c r="F97" s="49"/>
+      <c r="G97" s="50"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="58">
         <v>140</v>
       </c>
       <c r="N97" s="24" t="s">
@@ -5940,23 +5968,23 @@
       <c r="Q97" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R97" s="34"/>
+      <c r="R97" s="33"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="43">
+      <c r="B98" s="42">
         <v>90</v>
       </c>
-      <c r="C98" s="68" t="s">
+      <c r="C98" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D98" s="68" t="s">
+      <c r="D98" s="65" t="s">
         <v>19</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="53"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="61">
+      <c r="F98" s="49"/>
+      <c r="G98" s="50"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="58">
         <v>140</v>
       </c>
       <c r="N98" s="24" t="s">
@@ -5971,23 +5999,23 @@
       <c r="Q98" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R98" s="34"/>
+      <c r="R98" s="33"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="43">
+      <c r="B99" s="42">
         <v>91</v>
       </c>
-      <c r="C99" s="68" t="s">
+      <c r="C99" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="D99" s="68" t="s">
+      <c r="D99" s="65" t="s">
         <v>197</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="53"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="61">
+      <c r="F99" s="49"/>
+      <c r="G99" s="50"/>
+      <c r="L99" s="38"/>
+      <c r="M99" s="58">
         <v>140</v>
       </c>
       <c r="N99" s="24" t="s">
@@ -6002,23 +6030,23 @@
       <c r="Q99" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R99" s="34"/>
+      <c r="R99" s="33"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="51">
+      <c r="B100" s="48">
         <v>92</v>
       </c>
-      <c r="C100" s="68" t="s">
+      <c r="C100" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="D100" s="68" t="s">
+      <c r="D100" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E100" s="24"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="53"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="61">
+      <c r="F100" s="49"/>
+      <c r="G100" s="50"/>
+      <c r="L100" s="38"/>
+      <c r="M100" s="58">
         <v>140</v>
       </c>
       <c r="N100" s="24" t="s">
@@ -6033,23 +6061,23 @@
       <c r="Q100" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R100" s="34"/>
+      <c r="R100" s="33"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B101" s="43">
+      <c r="B101" s="42">
         <v>93</v>
       </c>
-      <c r="C101" s="68" t="s">
+      <c r="C101" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="D101" s="68" t="s">
+      <c r="D101" s="65" t="s">
         <v>178</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="53"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="61">
+      <c r="F101" s="49"/>
+      <c r="G101" s="50"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="58">
         <v>140</v>
       </c>
       <c r="N101" s="24" t="s">
@@ -6064,23 +6092,23 @@
       <c r="Q101" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R101" s="34"/>
+      <c r="R101" s="33"/>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="43">
+      <c r="B102" s="42">
         <v>94</v>
       </c>
-      <c r="C102" s="68" t="s">
+      <c r="C102" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="D102" s="68" t="s">
+      <c r="D102" s="65" t="s">
         <v>184</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="53"/>
-      <c r="L102" s="39"/>
-      <c r="M102" s="61">
+      <c r="F102" s="49"/>
+      <c r="G102" s="50"/>
+      <c r="L102" s="38"/>
+      <c r="M102" s="58">
         <v>140</v>
       </c>
       <c r="N102" s="24" t="s">
@@ -6095,23 +6123,23 @@
       <c r="Q102" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R102" s="34"/>
+      <c r="R102" s="33"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="51">
+      <c r="B103" s="48">
         <v>95</v>
       </c>
-      <c r="C103" s="68" t="s">
+      <c r="C103" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="D103" s="68" t="s">
+      <c r="D103" s="65" t="s">
         <v>184</v>
       </c>
       <c r="E103" s="24"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="53"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="61">
+      <c r="F103" s="49"/>
+      <c r="G103" s="50"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="58">
         <v>140</v>
       </c>
       <c r="N103" s="24" t="s">
@@ -6126,23 +6154,23 @@
       <c r="Q103" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R103" s="34"/>
+      <c r="R103" s="33"/>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="43">
+      <c r="B104" s="42">
         <v>96</v>
       </c>
-      <c r="C104" s="68" t="s">
+      <c r="C104" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="D104" s="68" t="s">
+      <c r="D104" s="65" t="s">
         <v>184</v>
       </c>
       <c r="E104" s="24"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="53"/>
-      <c r="L104" s="39"/>
-      <c r="M104" s="61">
+      <c r="F104" s="49"/>
+      <c r="G104" s="50"/>
+      <c r="L104" s="38"/>
+      <c r="M104" s="58">
         <v>140</v>
       </c>
       <c r="N104" s="24" t="s">
@@ -6157,23 +6185,23 @@
       <c r="Q104" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R104" s="34"/>
+      <c r="R104" s="33"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="43">
+      <c r="B105" s="42">
         <v>97</v>
       </c>
-      <c r="C105" s="68" t="s">
+      <c r="C105" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="D105" s="68" t="s">
+      <c r="D105" s="65" t="s">
         <v>184</v>
       </c>
       <c r="E105" s="24"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="53"/>
-      <c r="L105" s="39"/>
-      <c r="M105" s="61">
+      <c r="F105" s="49"/>
+      <c r="G105" s="50"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="58">
         <v>140</v>
       </c>
       <c r="N105" s="24" t="s">
@@ -6188,23 +6216,23 @@
       <c r="Q105" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R105" s="34"/>
+      <c r="R105" s="33"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="51">
+      <c r="B106" s="48">
         <v>98</v>
       </c>
-      <c r="C106" s="68" t="s">
+      <c r="C106" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="D106" s="68" t="s">
+      <c r="D106" s="65" t="s">
         <v>19</v>
       </c>
       <c r="E106" s="24"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="53"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="61">
+      <c r="F106" s="49"/>
+      <c r="G106" s="50"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="58">
         <v>140</v>
       </c>
       <c r="N106" s="24" t="s">
@@ -6219,23 +6247,23 @@
       <c r="Q106" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R106" s="34"/>
+      <c r="R106" s="33"/>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="43">
+      <c r="B107" s="42">
         <v>99</v>
       </c>
-      <c r="C107" s="68" t="s">
+      <c r="C107" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="D107" s="68" t="s">
+      <c r="D107" s="65" t="s">
         <v>36</v>
       </c>
       <c r="E107" s="24"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="53"/>
-      <c r="L107" s="39"/>
-      <c r="M107" s="61">
+      <c r="F107" s="49"/>
+      <c r="G107" s="50"/>
+      <c r="L107" s="38"/>
+      <c r="M107" s="58">
         <v>140</v>
       </c>
       <c r="N107" s="24" t="s">
@@ -6250,23 +6278,23 @@
       <c r="Q107" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R107" s="34"/>
+      <c r="R107" s="33"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="43">
+      <c r="B108" s="42">
         <v>100</v>
       </c>
-      <c r="C108" s="68" t="s">
+      <c r="C108" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="D108" s="68" t="s">
+      <c r="D108" s="65" t="s">
         <v>176</v>
       </c>
       <c r="E108" s="24"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="53"/>
-      <c r="L108" s="39"/>
-      <c r="M108" s="61">
+      <c r="F108" s="49"/>
+      <c r="G108" s="50"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="58">
         <v>140</v>
       </c>
       <c r="N108" s="24" t="s">
@@ -6281,23 +6309,23 @@
       <c r="Q108" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R108" s="34"/>
+      <c r="R108" s="33"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="51">
+      <c r="B109" s="48">
         <v>101</v>
       </c>
-      <c r="C109" s="69" t="s">
+      <c r="C109" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="D109" s="68" t="s">
+      <c r="D109" s="65" t="s">
         <v>180</v>
       </c>
       <c r="E109" s="24"/>
-      <c r="F109" s="52"/>
-      <c r="G109" s="53"/>
-      <c r="L109" s="39"/>
-      <c r="M109" s="61">
+      <c r="F109" s="49"/>
+      <c r="G109" s="50"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="58">
         <v>140</v>
       </c>
       <c r="N109" s="24" t="s">
@@ -6312,23 +6340,23 @@
       <c r="Q109" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R109" s="34"/>
+      <c r="R109" s="33"/>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="43">
+      <c r="B110" s="42">
         <v>102</v>
       </c>
-      <c r="C110" s="69" t="s">
+      <c r="C110" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="D110" s="68" t="s">
+      <c r="D110" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E110" s="24"/>
-      <c r="F110" s="52"/>
-      <c r="G110" s="53"/>
-      <c r="L110" s="39"/>
-      <c r="M110" s="33">
+      <c r="F110" s="49"/>
+      <c r="G110" s="50"/>
+      <c r="L110" s="38"/>
+      <c r="M110" s="32">
         <v>139</v>
       </c>
       <c r="N110" s="24" t="s">
@@ -6343,23 +6371,23 @@
       <c r="Q110" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R110" s="34"/>
+      <c r="R110" s="33"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="43">
+      <c r="B111" s="42">
         <v>103</v>
       </c>
-      <c r="C111" s="69" t="s">
+      <c r="C111" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="D111" s="68" t="s">
+      <c r="D111" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E111" s="24"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="53"/>
-      <c r="L111" s="39"/>
-      <c r="M111" s="33">
+      <c r="F111" s="49"/>
+      <c r="G111" s="50"/>
+      <c r="L111" s="38"/>
+      <c r="M111" s="32">
         <v>139</v>
       </c>
       <c r="N111" s="24" t="s">
@@ -6374,23 +6402,23 @@
       <c r="Q111" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R111" s="34"/>
+      <c r="R111" s="33"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="51">
+      <c r="B112" s="48">
         <v>104</v>
       </c>
-      <c r="C112" s="69" t="s">
+      <c r="C112" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="D112" s="68" t="s">
+      <c r="D112" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E112" s="24"/>
-      <c r="F112" s="52"/>
-      <c r="G112" s="53"/>
-      <c r="L112" s="39"/>
-      <c r="M112" s="33">
+      <c r="F112" s="49"/>
+      <c r="G112" s="50"/>
+      <c r="L112" s="38"/>
+      <c r="M112" s="32">
         <v>139</v>
       </c>
       <c r="N112" s="24" t="s">
@@ -6405,23 +6433,23 @@
       <c r="Q112" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R112" s="34"/>
+      <c r="R112" s="33"/>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="43">
+      <c r="B113" s="42">
         <v>105</v>
       </c>
-      <c r="C113" s="69" t="s">
+      <c r="C113" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="D113" s="68" t="s">
+      <c r="D113" s="65" t="s">
         <v>202</v>
       </c>
       <c r="E113" s="24"/>
-      <c r="F113" s="52"/>
-      <c r="G113" s="53"/>
-      <c r="L113" s="39"/>
-      <c r="M113" s="33">
+      <c r="F113" s="49"/>
+      <c r="G113" s="50"/>
+      <c r="L113" s="38"/>
+      <c r="M113" s="32">
         <v>139</v>
       </c>
       <c r="N113" s="24" t="s">
@@ -6436,23 +6464,23 @@
       <c r="Q113" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R113" s="34"/>
+      <c r="R113" s="33"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="43">
+      <c r="B114" s="42">
         <v>106</v>
       </c>
-      <c r="C114" s="70" t="s">
+      <c r="C114" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="D114" s="68" t="s">
+      <c r="D114" s="65" t="s">
         <v>202</v>
       </c>
       <c r="E114" s="24"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="53"/>
-      <c r="L114" s="39"/>
-      <c r="M114" s="61">
+      <c r="F114" s="49"/>
+      <c r="G114" s="50"/>
+      <c r="L114" s="38"/>
+      <c r="M114" s="58">
         <v>140</v>
       </c>
       <c r="N114" s="24" t="s">
@@ -6467,23 +6495,23 @@
       <c r="Q114" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R114" s="34"/>
+      <c r="R114" s="33"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="51">
+      <c r="B115" s="48">
         <v>107</v>
       </c>
-      <c r="C115" s="69" t="s">
+      <c r="C115" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D115" s="68" t="s">
+      <c r="D115" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E115" s="24"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="53"/>
-      <c r="L115" s="39"/>
-      <c r="M115" s="61">
+      <c r="F115" s="49"/>
+      <c r="G115" s="50"/>
+      <c r="L115" s="38"/>
+      <c r="M115" s="58">
         <v>140</v>
       </c>
       <c r="N115" s="24" t="s">
@@ -6498,23 +6526,23 @@
       <c r="Q115" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R115" s="34"/>
+      <c r="R115" s="33"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="43">
+      <c r="B116" s="42">
         <v>108</v>
       </c>
-      <c r="C116" s="69" t="s">
+      <c r="C116" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="D116" s="68" t="s">
+      <c r="D116" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E116" s="24"/>
-      <c r="F116" s="52"/>
-      <c r="G116" s="53"/>
-      <c r="L116" s="39"/>
-      <c r="M116" s="33">
+      <c r="F116" s="49"/>
+      <c r="G116" s="50"/>
+      <c r="L116" s="38"/>
+      <c r="M116" s="32">
         <v>139</v>
       </c>
       <c r="N116" s="24" t="s">
@@ -6529,23 +6557,23 @@
       <c r="Q116" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R116" s="34"/>
+      <c r="R116" s="33"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="43">
+      <c r="B117" s="42">
         <v>109</v>
       </c>
-      <c r="C117" s="69" t="s">
+      <c r="C117" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="D117" s="68" t="s">
+      <c r="D117" s="65" t="s">
         <v>200</v>
       </c>
       <c r="E117" s="24"/>
-      <c r="F117" s="52"/>
-      <c r="G117" s="53"/>
-      <c r="L117" s="39"/>
-      <c r="M117" s="61">
+      <c r="F117" s="49"/>
+      <c r="G117" s="50"/>
+      <c r="L117" s="38"/>
+      <c r="M117" s="58">
         <v>140</v>
       </c>
       <c r="N117" s="24" t="s">
@@ -6560,23 +6588,23 @@
       <c r="Q117" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R117" s="34"/>
+      <c r="R117" s="33"/>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="51">
+      <c r="B118" s="48">
         <v>110</v>
       </c>
-      <c r="C118" s="69" t="s">
+      <c r="C118" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="D118" s="68" t="s">
+      <c r="D118" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E118" s="24"/>
-      <c r="F118" s="52"/>
-      <c r="G118" s="53"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="61">
+      <c r="F118" s="49"/>
+      <c r="G118" s="50"/>
+      <c r="L118" s="38"/>
+      <c r="M118" s="58">
         <v>140</v>
       </c>
       <c r="N118" s="24" t="s">
@@ -6591,23 +6619,23 @@
       <c r="Q118" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R118" s="34"/>
+      <c r="R118" s="33"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="43">
+      <c r="B119" s="42">
         <v>111</v>
       </c>
-      <c r="C119" s="69" t="s">
+      <c r="C119" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="D119" s="68" t="s">
+      <c r="D119" s="65" t="s">
         <v>176</v>
       </c>
       <c r="E119" s="24"/>
-      <c r="F119" s="52"/>
-      <c r="G119" s="53"/>
-      <c r="L119" s="39"/>
-      <c r="M119" s="61">
+      <c r="F119" s="49"/>
+      <c r="G119" s="50"/>
+      <c r="L119" s="38"/>
+      <c r="M119" s="58">
         <v>140</v>
       </c>
       <c r="N119" s="24" t="s">
@@ -6622,23 +6650,23 @@
       <c r="Q119" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R119" s="34"/>
+      <c r="R119" s="33"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="43">
+      <c r="B120" s="42">
         <v>112</v>
       </c>
-      <c r="C120" s="69" t="s">
+      <c r="C120" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D120" s="68" t="s">
+      <c r="D120" s="65" t="s">
         <v>198</v>
       </c>
       <c r="E120" s="24"/>
-      <c r="F120" s="52"/>
-      <c r="G120" s="53"/>
-      <c r="L120" s="39"/>
-      <c r="M120" s="61">
+      <c r="F120" s="49"/>
+      <c r="G120" s="50"/>
+      <c r="L120" s="38"/>
+      <c r="M120" s="58">
         <v>140</v>
       </c>
       <c r="N120" s="24" t="s">
@@ -6653,23 +6681,23 @@
       <c r="Q120" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R120" s="34"/>
+      <c r="R120" s="33"/>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="51">
+      <c r="B121" s="48">
         <v>113</v>
       </c>
-      <c r="C121" s="69" t="s">
+      <c r="C121" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="D121" s="68" t="s">
+      <c r="D121" s="65" t="s">
         <v>36</v>
       </c>
       <c r="E121" s="24"/>
-      <c r="F121" s="52"/>
-      <c r="G121" s="53"/>
-      <c r="L121" s="39"/>
-      <c r="M121" s="61">
+      <c r="F121" s="49"/>
+      <c r="G121" s="50"/>
+      <c r="L121" s="38"/>
+      <c r="M121" s="58">
         <v>140</v>
       </c>
       <c r="N121" s="24" t="s">
@@ -6684,23 +6712,23 @@
       <c r="Q121" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R121" s="34"/>
+      <c r="R121" s="33"/>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="43">
+      <c r="B122" s="42">
         <v>114</v>
       </c>
-      <c r="C122" s="69" t="s">
+      <c r="C122" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="D122" s="68" t="s">
+      <c r="D122" s="65" t="s">
         <v>180</v>
       </c>
       <c r="E122" s="24"/>
-      <c r="F122" s="52"/>
-      <c r="G122" s="53"/>
-      <c r="L122" s="39"/>
-      <c r="M122" s="61">
+      <c r="F122" s="49"/>
+      <c r="G122" s="50"/>
+      <c r="L122" s="38"/>
+      <c r="M122" s="58">
         <v>140</v>
       </c>
       <c r="N122" s="24" t="s">
@@ -6715,23 +6743,23 @@
       <c r="Q122" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R122" s="34"/>
+      <c r="R122" s="33"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="43">
+      <c r="B123" s="42">
         <v>115</v>
       </c>
-      <c r="C123" s="69" t="s">
+      <c r="C123" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="D123" s="68" t="s">
+      <c r="D123" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E123" s="24"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="53"/>
-      <c r="L123" s="39"/>
-      <c r="M123" s="61">
+      <c r="F123" s="49"/>
+      <c r="G123" s="50"/>
+      <c r="L123" s="38"/>
+      <c r="M123" s="58">
         <v>140</v>
       </c>
       <c r="N123" s="24" t="s">
@@ -6746,23 +6774,23 @@
       <c r="Q123" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R123" s="34"/>
+      <c r="R123" s="33"/>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="51">
+      <c r="B124" s="48">
         <v>116</v>
       </c>
-      <c r="C124" s="69" t="s">
+      <c r="C124" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="D124" s="68" t="s">
+      <c r="D124" s="65" t="s">
         <v>180</v>
       </c>
       <c r="E124" s="24"/>
-      <c r="F124" s="52"/>
-      <c r="G124" s="53"/>
-      <c r="L124" s="39"/>
-      <c r="M124" s="61">
+      <c r="F124" s="49"/>
+      <c r="G124" s="50"/>
+      <c r="L124" s="38"/>
+      <c r="M124" s="58">
         <v>140</v>
       </c>
       <c r="N124" s="24" t="s">
@@ -6777,23 +6805,23 @@
       <c r="Q124" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R124" s="34"/>
+      <c r="R124" s="33"/>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="43">
+      <c r="B125" s="42">
         <v>117</v>
       </c>
-      <c r="C125" s="68" t="s">
+      <c r="C125" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D125" s="68" t="s">
+      <c r="D125" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E125" s="24"/>
-      <c r="F125" s="52"/>
-      <c r="G125" s="53"/>
-      <c r="L125" s="39"/>
-      <c r="M125" s="61">
+      <c r="F125" s="49"/>
+      <c r="G125" s="50"/>
+      <c r="L125" s="38"/>
+      <c r="M125" s="58">
         <v>140</v>
       </c>
       <c r="N125" s="24" t="s">
@@ -6808,23 +6836,23 @@
       <c r="Q125" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R125" s="34"/>
+      <c r="R125" s="33"/>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="43">
+      <c r="B126" s="42">
         <v>118</v>
       </c>
-      <c r="C126" s="68" t="s">
+      <c r="C126" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D126" s="68" t="s">
+      <c r="D126" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E126" s="24"/>
-      <c r="F126" s="52"/>
-      <c r="G126" s="53"/>
-      <c r="L126" s="39"/>
-      <c r="M126" s="61">
+      <c r="F126" s="49"/>
+      <c r="G126" s="50"/>
+      <c r="L126" s="38"/>
+      <c r="M126" s="58">
         <v>140</v>
       </c>
       <c r="N126" s="24" t="s">
@@ -6839,23 +6867,23 @@
       <c r="Q126" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R126" s="34"/>
+      <c r="R126" s="33"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="51">
+      <c r="B127" s="48">
         <v>119</v>
       </c>
-      <c r="C127" s="68" t="s">
+      <c r="C127" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D127" s="68" t="s">
+      <c r="D127" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E127" s="24"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="53"/>
-      <c r="L127" s="39"/>
-      <c r="M127" s="61">
+      <c r="F127" s="49"/>
+      <c r="G127" s="50"/>
+      <c r="L127" s="38"/>
+      <c r="M127" s="58">
         <v>140</v>
       </c>
       <c r="N127" s="24" t="s">
@@ -6870,23 +6898,23 @@
       <c r="Q127" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R127" s="34"/>
+      <c r="R127" s="33"/>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="43">
+      <c r="B128" s="42">
         <v>120</v>
       </c>
-      <c r="C128" s="68" t="s">
+      <c r="C128" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D128" s="68" t="s">
+      <c r="D128" s="65" t="s">
         <v>182</v>
       </c>
       <c r="E128" s="24"/>
-      <c r="F128" s="52"/>
-      <c r="G128" s="53"/>
-      <c r="L128" s="39"/>
-      <c r="M128" s="61">
+      <c r="F128" s="49"/>
+      <c r="G128" s="50"/>
+      <c r="L128" s="38"/>
+      <c r="M128" s="58">
         <v>140</v>
       </c>
       <c r="N128" s="24" t="s">
@@ -6901,23 +6929,23 @@
       <c r="Q128" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R128" s="34"/>
+      <c r="R128" s="33"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="43">
+      <c r="B129" s="42">
         <v>121</v>
       </c>
-      <c r="C129" s="68" t="s">
+      <c r="C129" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D129" s="68" t="s">
+      <c r="D129" s="65" t="s">
         <v>201</v>
       </c>
       <c r="E129" s="24"/>
-      <c r="F129" s="52"/>
-      <c r="G129" s="53"/>
-      <c r="L129" s="39"/>
-      <c r="M129" s="61">
+      <c r="F129" s="49"/>
+      <c r="G129" s="50"/>
+      <c r="L129" s="38"/>
+      <c r="M129" s="58">
         <v>140</v>
       </c>
       <c r="N129" s="24" t="s">
@@ -6932,23 +6960,23 @@
       <c r="Q129" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R129" s="34"/>
+      <c r="R129" s="33"/>
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B130" s="51">
+      <c r="B130" s="48">
         <v>122</v>
       </c>
-      <c r="C130" s="68" t="s">
+      <c r="C130" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D130" s="68" t="s">
+      <c r="D130" s="65" t="s">
         <v>182</v>
       </c>
       <c r="E130" s="24"/>
-      <c r="F130" s="52"/>
-      <c r="G130" s="53"/>
-      <c r="L130" s="39"/>
-      <c r="M130" s="61">
+      <c r="F130" s="49"/>
+      <c r="G130" s="50"/>
+      <c r="L130" s="38"/>
+      <c r="M130" s="58">
         <v>140</v>
       </c>
       <c r="N130" s="24" t="s">
@@ -6963,23 +6991,23 @@
       <c r="Q130" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R130" s="34"/>
+      <c r="R130" s="33"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="43">
+      <c r="B131" s="42">
         <v>123</v>
       </c>
-      <c r="C131" s="68" t="s">
+      <c r="C131" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D131" s="68" t="s">
+      <c r="D131" s="65" t="s">
         <v>199</v>
       </c>
       <c r="E131" s="24"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="53"/>
-      <c r="L131" s="39"/>
-      <c r="M131" s="61">
+      <c r="F131" s="49"/>
+      <c r="G131" s="50"/>
+      <c r="L131" s="38"/>
+      <c r="M131" s="58">
         <v>140</v>
       </c>
       <c r="N131" s="24" t="s">
@@ -6994,23 +7022,23 @@
       <c r="Q131" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R131" s="34"/>
+      <c r="R131" s="33"/>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="43">
+      <c r="B132" s="42">
         <v>124</v>
       </c>
-      <c r="C132" s="68" t="s">
+      <c r="C132" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D132" s="68" t="s">
+      <c r="D132" s="65" t="s">
         <v>19</v>
       </c>
       <c r="E132" s="24"/>
-      <c r="F132" s="52"/>
-      <c r="G132" s="53"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="33">
+      <c r="F132" s="49"/>
+      <c r="G132" s="50"/>
+      <c r="L132" s="38"/>
+      <c r="M132" s="32">
         <v>10</v>
       </c>
       <c r="N132" s="24" t="s">
@@ -7025,23 +7053,23 @@
       <c r="Q132" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="R132" s="34"/>
+      <c r="R132" s="33"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="51">
+      <c r="B133" s="48">
         <v>125</v>
       </c>
-      <c r="C133" s="68" t="s">
+      <c r="C133" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="D133" s="68" t="s">
+      <c r="D133" s="65" t="s">
         <v>19</v>
       </c>
       <c r="E133" s="24"/>
-      <c r="F133" s="52"/>
-      <c r="G133" s="53"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="33">
+      <c r="F133" s="49"/>
+      <c r="G133" s="50"/>
+      <c r="L133" s="38"/>
+      <c r="M133" s="32">
         <v>1</v>
       </c>
       <c r="N133" s="24" t="s">
@@ -7056,85 +7084,85 @@
       <c r="Q133" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="R133" s="34"/>
+      <c r="R133" s="33"/>
     </row>
     <row r="134" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="43">
+      <c r="B134" s="42">
         <v>126</v>
       </c>
-      <c r="C134" s="68" t="s">
+      <c r="C134" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="D134" s="68" t="s">
+      <c r="D134" s="65" t="s">
         <v>193</v>
       </c>
       <c r="E134" s="24"/>
-      <c r="F134" s="52"/>
-      <c r="G134" s="53"/>
-      <c r="L134" s="40"/>
-      <c r="M134" s="109">
+      <c r="F134" s="49"/>
+      <c r="G134" s="50"/>
+      <c r="L134" s="39"/>
+      <c r="M134" s="84">
         <v>2</v>
       </c>
-      <c r="N134" s="110" t="s">
+      <c r="N134" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="O134" s="110" t="s">
+      <c r="O134" s="85" t="s">
         <v>342</v>
       </c>
-      <c r="P134" s="110" t="s">
+      <c r="P134" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="Q134" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="R134" s="58"/>
+      <c r="Q134" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="55"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="43">
+      <c r="B135" s="42">
         <v>127</v>
       </c>
-      <c r="C135" s="68" t="s">
+      <c r="C135" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="D135" s="68" t="s">
+      <c r="D135" s="65" t="s">
         <v>193</v>
       </c>
       <c r="E135" s="24"/>
-      <c r="F135" s="52"/>
-      <c r="G135" s="53"/>
-      <c r="L135" s="57"/>
-      <c r="M135" s="47">
+      <c r="F135" s="49"/>
+      <c r="G135" s="50"/>
+      <c r="L135" s="54"/>
+      <c r="M135" s="44">
         <v>141</v>
       </c>
-      <c r="N135" s="62" t="s">
+      <c r="N135" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="O135" s="62" t="s">
+      <c r="O135" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="P135" s="62" t="s">
+      <c r="P135" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="Q135" s="62" t="s">
+      <c r="Q135" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="R135" s="55"/>
+      <c r="R135" s="52"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="51">
+      <c r="B136" s="48">
         <v>128</v>
       </c>
-      <c r="C136" s="68" t="s">
+      <c r="C136" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="D136" s="68" t="s">
+      <c r="D136" s="65" t="s">
         <v>203</v>
       </c>
       <c r="E136" s="24"/>
-      <c r="F136" s="52"/>
-      <c r="G136" s="53"/>
-      <c r="L136" s="39"/>
-      <c r="M136" s="33">
+      <c r="F136" s="49"/>
+      <c r="G136" s="50"/>
+      <c r="L136" s="38"/>
+      <c r="M136" s="32">
         <v>135</v>
       </c>
       <c r="N136" s="31" t="s">
@@ -7149,23 +7177,23 @@
       <c r="Q136" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R136" s="34"/>
+      <c r="R136" s="33"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="43">
+      <c r="B137" s="42">
         <v>129</v>
       </c>
-      <c r="C137" s="68" t="s">
+      <c r="C137" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="D137" s="68" t="s">
+      <c r="D137" s="65" t="s">
         <v>203</v>
       </c>
       <c r="E137" s="24"/>
-      <c r="F137" s="52"/>
-      <c r="G137" s="53"/>
-      <c r="L137" s="39"/>
-      <c r="M137" s="33">
+      <c r="F137" s="49"/>
+      <c r="G137" s="50"/>
+      <c r="L137" s="38"/>
+      <c r="M137" s="32">
         <v>142</v>
       </c>
       <c r="N137" s="31" t="s">
@@ -7180,24 +7208,24 @@
       <c r="Q137" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R137" s="34"/>
+      <c r="R137" s="33"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="43">
+      <c r="B138" s="42">
         <v>130</v>
       </c>
-      <c r="C138" s="68" t="s">
+      <c r="C138" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="D138" s="68" t="s">
+      <c r="D138" s="65" t="s">
         <v>204</v>
       </c>
       <c r="E138" s="24"/>
-      <c r="F138" s="52"/>
-      <c r="G138" s="53"/>
-      <c r="L138" s="39"/>
-      <c r="M138" s="33">
-        <v>136</v>
+      <c r="F138" s="49"/>
+      <c r="G138" s="50"/>
+      <c r="L138" s="38"/>
+      <c r="M138" s="32">
+        <v>144</v>
       </c>
       <c r="N138" s="31" t="s">
         <v>347</v>
@@ -7211,23 +7239,23 @@
       <c r="Q138" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R138" s="34"/>
+      <c r="R138" s="33"/>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="51">
+      <c r="B139" s="48">
         <v>131</v>
       </c>
-      <c r="C139" s="68" t="s">
+      <c r="C139" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="D139" s="68" t="s">
+      <c r="D139" s="65" t="s">
         <v>177</v>
       </c>
       <c r="E139" s="24"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="53"/>
-      <c r="L139" s="39"/>
-      <c r="M139" s="33">
+      <c r="F139" s="49"/>
+      <c r="G139" s="50"/>
+      <c r="L139" s="38"/>
+      <c r="M139" s="32">
         <v>143</v>
       </c>
       <c r="N139" s="31" t="s">
@@ -7242,23 +7270,23 @@
       <c r="Q139" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R139" s="34"/>
+      <c r="R139" s="33"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B140" s="43">
+      <c r="B140" s="42">
         <v>132</v>
       </c>
-      <c r="C140" s="68" t="s">
+      <c r="C140" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="D140" s="68" t="s">
+      <c r="D140" s="65" t="s">
         <v>36</v>
       </c>
       <c r="E140" s="24"/>
-      <c r="F140" s="52"/>
-      <c r="G140" s="53"/>
-      <c r="L140" s="39"/>
-      <c r="M140" s="33">
+      <c r="F140" s="49"/>
+      <c r="G140" s="50"/>
+      <c r="L140" s="38"/>
+      <c r="M140" s="32">
         <v>138</v>
       </c>
       <c r="N140" s="31" t="s">
@@ -7273,23 +7301,23 @@
       <c r="Q140" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R140" s="34"/>
+      <c r="R140" s="33"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B141" s="43">
+      <c r="B141" s="42">
         <v>133</v>
       </c>
-      <c r="C141" s="68" t="s">
+      <c r="C141" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="D141" s="68" t="s">
+      <c r="D141" s="65" t="s">
         <v>176</v>
       </c>
       <c r="E141" s="24"/>
-      <c r="F141" s="52"/>
-      <c r="G141" s="53"/>
-      <c r="L141" s="39"/>
-      <c r="M141" s="33">
+      <c r="F141" s="49"/>
+      <c r="G141" s="50"/>
+      <c r="L141" s="38"/>
+      <c r="M141" s="32">
         <v>137</v>
       </c>
       <c r="N141" s="31" t="s">
@@ -7304,23 +7332,23 @@
       <c r="Q141" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R141" s="34"/>
+      <c r="R141" s="33"/>
     </row>
     <row r="142" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="51">
+      <c r="B142" s="48">
         <v>134</v>
       </c>
-      <c r="C142" s="73" t="s">
+      <c r="C142" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="D142" s="73" t="s">
+      <c r="D142" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="E142" s="41"/>
-      <c r="F142" s="66"/>
-      <c r="G142" s="67"/>
-      <c r="L142" s="39"/>
-      <c r="M142" s="33">
+      <c r="E142" s="40"/>
+      <c r="F142" s="63"/>
+      <c r="G142" s="64"/>
+      <c r="L142" s="38"/>
+      <c r="M142" s="32">
         <v>136</v>
       </c>
       <c r="N142" s="31" t="s">
@@ -7335,11 +7363,11 @@
       <c r="Q142" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R142" s="34"/>
+      <c r="R142" s="33"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L143" s="39"/>
-      <c r="M143" s="33">
+      <c r="L143" s="38"/>
+      <c r="M143" s="32">
         <v>140</v>
       </c>
       <c r="N143" s="31" t="s">
@@ -7354,11 +7382,11 @@
       <c r="Q143" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R143" s="34"/>
+      <c r="R143" s="33"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L144" s="39"/>
-      <c r="M144" s="33">
+      <c r="L144" s="38"/>
+      <c r="M144" s="32">
         <v>140</v>
       </c>
       <c r="N144" s="31" t="s">
@@ -7373,26 +7401,26 @@
       <c r="Q144" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R144" s="34"/>
+      <c r="R144" s="33"/>
     </row>
     <row r="145" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L145" s="40"/>
-      <c r="M145" s="111">
-        <v>140</v>
-      </c>
-      <c r="N145" s="112" t="s">
+      <c r="L145" s="39"/>
+      <c r="M145" s="86">
+        <v>145</v>
+      </c>
+      <c r="N145" s="87" t="s">
         <v>347</v>
       </c>
-      <c r="O145" s="112" t="s">
+      <c r="O145" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="P145" s="112" t="s">
+      <c r="P145" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q145" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="R145" s="35"/>
+      <c r="Q145" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="R145" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Compra Cartera/Mapeos_CON_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_CON_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="359">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -306,9 +306,6 @@
     <t>Cargados por otra fuente</t>
   </si>
   <si>
-    <t>Fecha de fin para cierre de registros</t>
-  </si>
-  <si>
     <t>CHAR(20)</t>
   </si>
   <si>
@@ -1276,6 +1273,12 @@
   </si>
   <si>
     <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Fecha de fin del registro</t>
+  </si>
+  <si>
+    <t>Fecha de inicio del registro</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1454,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1610,6 +1613,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -2202,7 +2211,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2271,7 +2280,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2283,12 +2291,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2363,6 +2365,20 @@
     <xf numFmtId="0" fontId="26" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2420,20 +2436,17 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="87">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2913,7 +2926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2923,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G127" workbookViewId="0">
-      <selection activeCell="N142" sqref="N142"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O140" sqref="O140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2932,7 +2945,7 @@
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="72" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
@@ -2953,7 +2966,7 @@
     <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="71"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2963,94 +2976,99 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="D2" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="46"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="103"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="34"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="103"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="71"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="108"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="113"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3059,7 +3077,7 @@
       <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="69" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -3102,75 +3120,75 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>1</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="91">
+        <v>135</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="85"/>
+      <c r="M9" s="76">
+        <v>135</v>
+      </c>
+      <c r="N9" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="O9" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="P9" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="36"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="41">
+        <v>2</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D10" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="113">
-        <v>135</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="77" t="s">
-        <v>214</v>
-      </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="79">
-        <v>135</v>
-      </c>
-      <c r="N9" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="O9" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="P9" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="37"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="42">
-        <v>2</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="114">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="92">
         <v>136</v>
       </c>
       <c r="J10" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="76" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="88"/>
+      <c r="L10" s="85"/>
       <c r="M10" s="32">
         <v>136</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>18</v>
@@ -3181,37 +3199,37 @@
       <c r="Q10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="56"/>
+      <c r="R10" s="53"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="42">
+      <c r="B11" s="41">
         <v>3</v>
       </c>
-      <c r="C11" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="114">
+      <c r="C11" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="92">
         <v>137</v>
       </c>
       <c r="J11" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="K11" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="88"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="32">
         <v>137</v>
       </c>
       <c r="N11" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>21</v>
@@ -3222,37 +3240,37 @@
       <c r="Q11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="35"/>
+      <c r="R11" s="34"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="42">
+      <c r="B12" s="41">
         <v>4</v>
       </c>
-      <c r="C12" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="114">
+      <c r="C12" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="92">
         <v>138</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="K12" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="L12" s="88"/>
+        <v>272</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="L12" s="85"/>
       <c r="M12" s="32">
         <v>138</v>
       </c>
       <c r="N12" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>23</v>
@@ -3263,81 +3281,81 @@
       <c r="Q12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="35"/>
+      <c r="R12" s="34"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="48">
+      <c r="B13" s="45">
         <v>5</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="92">
+        <v>139</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" s="86"/>
+      <c r="M13" s="41">
+        <v>3</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="41">
+        <v>6</v>
+      </c>
+      <c r="C14" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="114">
-        <v>139</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="K13" s="76" t="s">
+      <c r="D14" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="93">
+        <v>140</v>
+      </c>
+      <c r="J14" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="L13" s="89"/>
-      <c r="M13" s="42">
-        <v>3</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="35"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="42">
-        <v>6</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="115">
-        <v>140</v>
-      </c>
-      <c r="J14" s="28" t="s">
+      <c r="K14" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="K14" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="L14" s="89"/>
+      <c r="L14" s="86"/>
       <c r="M14" s="32">
         <v>139</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O14" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P14" s="31" t="s">
         <v>24</v>
@@ -3345,40 +3363,40 @@
       <c r="Q14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="35"/>
+      <c r="R14" s="34"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="42">
+      <c r="B15" s="41">
         <v>7</v>
       </c>
-      <c r="C15" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="114">
+      <c r="C15" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="92">
         <v>141</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="K15" s="76" t="s">
-        <v>352</v>
-      </c>
-      <c r="L15" s="89"/>
+        <v>347</v>
+      </c>
+      <c r="K15" s="73" t="s">
+        <v>351</v>
+      </c>
+      <c r="L15" s="86"/>
       <c r="M15" s="32">
         <v>139</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O15" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>24</v>
@@ -3386,40 +3404,40 @@
       <c r="Q15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="35"/>
+      <c r="R15" s="34"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="48">
+      <c r="B16" s="45">
         <v>8</v>
       </c>
-      <c r="C16" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="115">
+      <c r="C16" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="93">
         <v>142</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="K16" s="76" t="s">
-        <v>353</v>
-      </c>
-      <c r="L16" s="89"/>
+        <v>348</v>
+      </c>
+      <c r="K16" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="L16" s="86"/>
       <c r="M16" s="32">
         <v>139</v>
       </c>
       <c r="N16" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O16" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P16" s="31" t="s">
         <v>24</v>
@@ -3427,40 +3445,40 @@
       <c r="Q16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="35"/>
+      <c r="R16" s="34"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="42">
+      <c r="B17" s="41">
         <v>9</v>
       </c>
-      <c r="C17" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="114">
+      <c r="C17" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="92">
         <v>143</v>
       </c>
       <c r="J17" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="K17" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="K17" s="76" t="s">
-        <v>351</v>
-      </c>
-      <c r="L17" s="89"/>
+      <c r="L17" s="86"/>
       <c r="M17" s="32">
         <v>139</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O17" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>24</v>
@@ -3468,40 +3486,40 @@
       <c r="Q17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="56"/>
+      <c r="R17" s="53"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="42">
+      <c r="B18" s="41">
         <v>10</v>
       </c>
-      <c r="C18" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="74" t="s">
+      <c r="C18" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="114">
+      <c r="E18" s="35"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="92">
         <v>144</v>
       </c>
       <c r="J18" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="K18" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="K18" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="L18" s="89"/>
+      <c r="L18" s="86"/>
       <c r="M18" s="32">
         <v>139</v>
       </c>
       <c r="N18" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P18" s="31" t="s">
         <v>24</v>
@@ -3509,40 +3527,40 @@
       <c r="Q18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="35"/>
+      <c r="R18" s="34"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48">
+      <c r="B19" s="45">
         <v>11</v>
       </c>
-      <c r="C19" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="74" t="s">
+      <c r="C19" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="116">
+      <c r="E19" s="35"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="94">
         <v>145</v>
       </c>
-      <c r="J19" s="109" t="s">
+      <c r="J19" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="K19" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="K19" s="78" t="s">
-        <v>357</v>
-      </c>
-      <c r="L19" s="89"/>
+      <c r="L19" s="86"/>
       <c r="M19" s="32">
         <v>139</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P19" s="31" t="s">
         <v>24</v>
@@ -3550,30 +3568,30 @@
       <c r="Q19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="35"/>
+      <c r="R19" s="34"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="42">
+      <c r="B20" s="41">
         <v>12</v>
       </c>
-      <c r="C20" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="L20" s="38"/>
+      <c r="C20" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="32">
         <v>139</v>
       </c>
       <c r="N20" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P20" s="31" t="s">
         <v>24</v>
@@ -3581,30 +3599,30 @@
       <c r="Q20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="56"/>
+      <c r="R20" s="53"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="42">
+      <c r="B21" s="41">
         <v>13</v>
       </c>
-      <c r="C21" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-      <c r="L21" s="38"/>
+      <c r="C21" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="32">
         <v>139</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P21" s="31" t="s">
         <v>24</v>
@@ -3612,30 +3630,30 @@
       <c r="Q21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="56"/>
+      <c r="R21" s="53"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="48">
+      <c r="B22" s="45">
         <v>14</v>
       </c>
-      <c r="C22" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="58">
+      <c r="C22" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="55">
         <v>140</v>
       </c>
       <c r="N22" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P22" s="31" t="s">
         <v>19</v>
@@ -3643,30 +3661,30 @@
       <c r="Q22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="35"/>
+      <c r="R22" s="34"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="42">
+      <c r="B23" s="41">
         <v>15</v>
       </c>
-      <c r="C23" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="L23" s="38"/>
+      <c r="C23" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="L23" s="37"/>
       <c r="M23" s="32">
         <v>139</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>24</v>
@@ -3674,30 +3692,30 @@
       <c r="Q23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="35"/>
+      <c r="R23" s="34"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="42">
+      <c r="B24" s="41">
         <v>16</v>
       </c>
-      <c r="C24" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="58">
+      <c r="C24" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="58"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="55">
         <v>140</v>
       </c>
       <c r="N24" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O24" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P24" s="31" t="s">
         <v>19</v>
@@ -3705,30 +3723,30 @@
       <c r="Q24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R24" s="35"/>
+      <c r="R24" s="34"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="48">
+      <c r="B25" s="45">
         <v>17</v>
       </c>
-      <c r="C25" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="L25" s="38"/>
+      <c r="C25" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="32">
         <v>139</v>
       </c>
       <c r="N25" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O25" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P25" s="31" t="s">
         <v>24</v>
@@ -3736,30 +3754,30 @@
       <c r="Q25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="35"/>
+      <c r="R25" s="34"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="42">
+      <c r="B26" s="41">
         <v>18</v>
       </c>
-      <c r="C26" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="58">
+      <c r="C26" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="55">
         <v>140</v>
       </c>
       <c r="N26" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O26" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P26" s="31" t="s">
         <v>19</v>
@@ -3767,30 +3785,30 @@
       <c r="Q26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="35"/>
+      <c r="R26" s="34"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="42">
+      <c r="B27" s="41">
         <v>19</v>
       </c>
-      <c r="C27" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="L27" s="38"/>
+      <c r="C27" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="L27" s="37"/>
       <c r="M27" s="32">
         <v>139</v>
       </c>
       <c r="N27" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O27" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P27" s="31" t="s">
         <v>24</v>
@@ -3798,30 +3816,30 @@
       <c r="Q27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R27" s="35"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="48">
-        <v>20</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="58">
+      <c r="B28" s="45">
+        <v>20</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="55">
         <v>140</v>
       </c>
       <c r="N28" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O28" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P28" s="31" t="s">
         <v>19</v>
@@ -3829,30 +3847,30 @@
       <c r="Q28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R28" s="56"/>
+      <c r="R28" s="53"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="42">
+      <c r="B29" s="41">
         <v>21</v>
       </c>
-      <c r="C29" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-      <c r="L29" s="38"/>
+      <c r="C29" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
+      <c r="L29" s="37"/>
       <c r="M29" s="32">
         <v>139</v>
       </c>
       <c r="N29" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O29" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P29" s="31" t="s">
         <v>24</v>
@@ -3860,30 +3878,30 @@
       <c r="Q29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R29" s="35"/>
+      <c r="R29" s="34"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="42">
+      <c r="B30" s="41">
         <v>22</v>
       </c>
-      <c r="C30" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="58">
+      <c r="C30" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="55">
         <v>140</v>
       </c>
       <c r="N30" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P30" s="31" t="s">
         <v>19</v>
@@ -3891,30 +3909,30 @@
       <c r="Q30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="35"/>
+      <c r="R30" s="34"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="48">
+      <c r="B31" s="45">
         <v>23</v>
       </c>
-      <c r="C31" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="74" t="s">
+      <c r="C31" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="L31" s="38"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
+      <c r="L31" s="37"/>
       <c r="M31" s="32">
         <v>139</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P31" s="31" t="s">
         <v>24</v>
@@ -3922,30 +3940,30 @@
       <c r="Q31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="56"/>
+      <c r="R31" s="53"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="42">
+      <c r="B32" s="41">
         <v>24</v>
       </c>
-      <c r="C32" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="74" t="s">
+      <c r="C32" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="58">
+      <c r="E32" s="59"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="55">
         <v>140</v>
       </c>
       <c r="N32" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P32" s="31" t="s">
         <v>19</v>
@@ -3953,30 +3971,30 @@
       <c r="Q32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="56"/>
+      <c r="R32" s="53"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="42">
+      <c r="B33" s="41">
         <v>25</v>
       </c>
-      <c r="C33" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="74" t="s">
+      <c r="C33" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
-      <c r="L33" s="38"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="L33" s="37"/>
       <c r="M33" s="32">
         <v>139</v>
       </c>
       <c r="N33" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P33" s="31" t="s">
         <v>24</v>
@@ -3984,30 +4002,30 @@
       <c r="Q33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R33" s="35"/>
+      <c r="R33" s="34"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="48">
+      <c r="B34" s="45">
         <v>26</v>
       </c>
-      <c r="C34" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="58">
+      <c r="C34" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="59"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="55">
         <v>140</v>
       </c>
       <c r="N34" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P34" s="31" t="s">
         <v>19</v>
@@ -4015,30 +4033,30 @@
       <c r="Q34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="35"/>
+      <c r="R34" s="34"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="42">
+      <c r="B35" s="41">
         <v>27</v>
       </c>
-      <c r="C35" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
-      <c r="L35" s="38"/>
+      <c r="C35" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
+      <c r="L35" s="37"/>
       <c r="M35" s="32">
         <v>139</v>
       </c>
       <c r="N35" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O35" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P35" s="31" t="s">
         <v>24</v>
@@ -4046,30 +4064,30 @@
       <c r="Q35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="35"/>
+      <c r="R35" s="34"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="42">
+      <c r="B36" s="41">
         <v>28</v>
       </c>
-      <c r="C36" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="58">
+      <c r="C36" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="59"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="55">
         <v>140</v>
       </c>
       <c r="N36" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O36" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P36" s="31" t="s">
         <v>19</v>
@@ -4077,30 +4095,30 @@
       <c r="Q36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R36" s="35"/>
+      <c r="R36" s="34"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="48">
+      <c r="B37" s="45">
         <v>29</v>
       </c>
-      <c r="C37" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-      <c r="L37" s="38"/>
+      <c r="C37" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="59"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
+      <c r="L37" s="37"/>
       <c r="M37" s="32">
         <v>139</v>
       </c>
       <c r="N37" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O37" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P37" s="31" t="s">
         <v>24</v>
@@ -4108,30 +4126,30 @@
       <c r="Q37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R37" s="35"/>
+      <c r="R37" s="34"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="42">
+      <c r="B38" s="41">
         <v>30</v>
       </c>
-      <c r="C38" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="58">
+      <c r="C38" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="59"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="55">
         <v>140</v>
       </c>
       <c r="N38" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O38" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P38" s="31" t="s">
         <v>19</v>
@@ -4139,30 +4157,30 @@
       <c r="Q38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R38" s="35"/>
+      <c r="R38" s="34"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="42">
+      <c r="B39" s="41">
         <v>31</v>
       </c>
-      <c r="C39" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
-      <c r="L39" s="38"/>
+      <c r="C39" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="59"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
+      <c r="L39" s="37"/>
       <c r="M39" s="32">
         <v>139</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O39" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P39" s="31" t="s">
         <v>24</v>
@@ -4170,30 +4188,30 @@
       <c r="Q39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="56"/>
+      <c r="R39" s="53"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="48">
+      <c r="B40" s="45">
         <v>32</v>
       </c>
-      <c r="C40" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="50"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="58">
+      <c r="C40" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="35"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="55">
         <v>140</v>
       </c>
       <c r="N40" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O40" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P40" s="31" t="s">
         <v>19</v>
@@ -4201,30 +4219,30 @@
       <c r="Q40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R40" s="35"/>
+      <c r="R40" s="34"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="42">
+      <c r="B41" s="41">
         <v>33</v>
       </c>
-      <c r="C41" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="50"/>
-      <c r="L41" s="38"/>
+      <c r="C41" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
+      <c r="L41" s="37"/>
       <c r="M41" s="32">
         <v>139</v>
       </c>
       <c r="N41" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O41" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P41" s="31" t="s">
         <v>24</v>
@@ -4232,30 +4250,30 @@
       <c r="Q41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R41" s="35"/>
+      <c r="R41" s="34"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="42">
+      <c r="B42" s="41">
         <v>34</v>
       </c>
-      <c r="C42" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="58">
+      <c r="C42" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="35"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="55">
         <v>140</v>
       </c>
       <c r="N42" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O42" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P42" s="31" t="s">
         <v>19</v>
@@ -4263,30 +4281,30 @@
       <c r="Q42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="56"/>
+      <c r="R42" s="53"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="48">
+      <c r="B43" s="45">
         <v>35</v>
       </c>
-      <c r="C43" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="50"/>
-      <c r="L43" s="38"/>
+      <c r="C43" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="35"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
+      <c r="L43" s="37"/>
       <c r="M43" s="32">
         <v>139</v>
       </c>
       <c r="N43" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O43" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P43" s="31" t="s">
         <v>24</v>
@@ -4294,30 +4312,30 @@
       <c r="Q43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="56"/>
+      <c r="R43" s="53"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="42">
+      <c r="B44" s="41">
         <v>36</v>
       </c>
-      <c r="C44" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="50"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="58">
+      <c r="C44" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="35"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="55">
         <v>140</v>
       </c>
       <c r="N44" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O44" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P44" s="31" t="s">
         <v>19</v>
@@ -4325,30 +4343,30 @@
       <c r="Q44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R44" s="35"/>
+      <c r="R44" s="34"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="42">
+      <c r="B45" s="41">
         <v>37</v>
       </c>
-      <c r="C45" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
-      <c r="L45" s="38"/>
+      <c r="C45" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="35"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
+      <c r="L45" s="37"/>
       <c r="M45" s="32">
         <v>139</v>
       </c>
       <c r="N45" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O45" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P45" s="31" t="s">
         <v>24</v>
@@ -4356,30 +4374,30 @@
       <c r="Q45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R45" s="35"/>
+      <c r="R45" s="34"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="48">
+      <c r="B46" s="45">
         <v>38</v>
       </c>
-      <c r="C46" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
-      <c r="L46" s="38"/>
+      <c r="C46" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
+      <c r="L46" s="37"/>
       <c r="M46" s="32">
         <v>139</v>
       </c>
       <c r="N46" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O46" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P46" s="31" t="s">
         <v>24</v>
@@ -4387,30 +4405,30 @@
       <c r="Q46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="35"/>
+      <c r="R46" s="34"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="42">
+      <c r="B47" s="41">
         <v>39</v>
       </c>
-      <c r="C47" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="74" t="s">
-        <v>184</v>
+      <c r="C47" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="71" t="s">
+        <v>183</v>
       </c>
       <c r="E47" s="24"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
-      <c r="L47" s="38"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="L47" s="37"/>
       <c r="M47" s="32">
         <v>139</v>
       </c>
       <c r="N47" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O47" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P47" s="31" t="s">
         <v>24</v>
@@ -4418,30 +4436,30 @@
       <c r="Q47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R47" s="35"/>
+      <c r="R47" s="34"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="42">
+      <c r="B48" s="41">
         <v>40</v>
       </c>
-      <c r="C48" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="74" t="s">
-        <v>184</v>
+      <c r="C48" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>183</v>
       </c>
       <c r="E48" s="24"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="58">
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="55">
         <v>140</v>
       </c>
       <c r="N48" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O48" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P48" s="31" t="s">
         <v>24</v>
@@ -4449,30 +4467,30 @@
       <c r="Q48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="35"/>
+      <c r="R48" s="34"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="48">
+      <c r="B49" s="45">
         <v>41</v>
       </c>
-      <c r="C49" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="74" t="s">
+      <c r="C49" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="24"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="58">
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="55">
         <v>140</v>
       </c>
       <c r="N49" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O49" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P49" s="31" t="s">
         <v>24</v>
@@ -4480,30 +4498,30 @@
       <c r="Q49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="35"/>
+      <c r="R49" s="34"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="42">
+      <c r="B50" s="41">
         <v>42</v>
       </c>
-      <c r="C50" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="74" t="s">
+      <c r="C50" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
-      <c r="L50" s="38"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
+      <c r="L50" s="37"/>
       <c r="M50" s="32">
         <v>139</v>
       </c>
       <c r="N50" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O50" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P50" s="31" t="s">
         <v>16</v>
@@ -4511,92 +4529,92 @@
       <c r="Q50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="56"/>
+      <c r="R50" s="53"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="42">
+      <c r="B51" s="41">
         <v>43</v>
       </c>
-      <c r="C51" s="68" t="s">
+      <c r="C51" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="24"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="47"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="55">
+        <v>140</v>
+      </c>
+      <c r="N51" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O51" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="P51" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="34"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B52" s="45">
+        <v>44</v>
+      </c>
+      <c r="C52" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="74" t="s">
+      <c r="D52" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="24"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="47"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="117">
+        <v>144</v>
+      </c>
+      <c r="N52" s="118" t="s">
+        <v>271</v>
+      </c>
+      <c r="O52" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="P52" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="58">
-        <v>140</v>
-      </c>
-      <c r="N51" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="O51" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="P51" s="31" t="s">
+      <c r="Q52" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="119"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B53" s="41">
+        <v>45</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" s="24"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="47"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="41">
+        <v>11</v>
+      </c>
+      <c r="N53" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O53" s="31" t="s">
         <v>254</v>
-      </c>
-      <c r="Q51" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="35"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="48">
-        <v>44</v>
-      </c>
-      <c r="C52" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="32">
-        <v>144</v>
-      </c>
-      <c r="N52" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="O52" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="P52" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q52" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="35"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="42">
-        <v>45</v>
-      </c>
-      <c r="C53" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="42">
-        <v>11</v>
-      </c>
-      <c r="N53" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="O53" s="31" t="s">
-        <v>255</v>
       </c>
       <c r="P53" s="31" t="s">
         <v>19</v>
@@ -4604,61 +4622,61 @@
       <c r="Q53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="56"/>
+      <c r="R53" s="53"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="42">
+      <c r="B54" s="41">
         <v>46</v>
       </c>
-      <c r="C54" s="68" t="s">
+      <c r="C54" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="47"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="50">
+        <v>145</v>
+      </c>
+      <c r="N54" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="O54" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q54" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="78"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B55" s="45">
+        <v>47</v>
+      </c>
+      <c r="C55" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="53">
-        <v>145</v>
-      </c>
-      <c r="N54" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="O54" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="P54" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q54" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="81"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="48">
-        <v>47</v>
-      </c>
-      <c r="C55" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="74" t="s">
-        <v>186</v>
+      <c r="D55" s="71" t="s">
+        <v>185</v>
       </c>
       <c r="E55" s="24"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="50"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="58">
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="55">
         <v>140</v>
       </c>
       <c r="N55" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O55" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P55" s="31" t="s">
         <v>24</v>
@@ -4666,30 +4684,30 @@
       <c r="Q55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R55" s="35"/>
+      <c r="R55" s="34"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="42">
+      <c r="B56" s="41">
         <v>48</v>
       </c>
-      <c r="C56" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="74" t="s">
-        <v>187</v>
+      <c r="C56" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="71" t="s">
+        <v>186</v>
       </c>
       <c r="E56" s="24"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="50"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="58">
+      <c r="F56" s="46"/>
+      <c r="G56" s="47"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="55">
         <v>140</v>
       </c>
       <c r="N56" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O56" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P56" s="31" t="s">
         <v>19</v>
@@ -4697,30 +4715,30 @@
       <c r="Q56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="35"/>
+      <c r="R56" s="34"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="42">
+      <c r="B57" s="41">
         <v>49</v>
       </c>
-      <c r="C57" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="74" t="s">
-        <v>183</v>
+      <c r="C57" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="71" t="s">
+        <v>182</v>
       </c>
       <c r="E57" s="24"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="50"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="58">
+      <c r="F57" s="46"/>
+      <c r="G57" s="47"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="55">
         <v>140</v>
       </c>
       <c r="N57" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O57" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P57" s="31" t="s">
         <v>19</v>
@@ -4728,30 +4746,30 @@
       <c r="Q57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="35"/>
+      <c r="R57" s="34"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="48">
+      <c r="B58" s="45">
         <v>50</v>
       </c>
-      <c r="C58" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="74" t="s">
-        <v>188</v>
+      <c r="C58" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="71" t="s">
+        <v>187</v>
       </c>
       <c r="E58" s="24"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="50"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="58">
+      <c r="F58" s="46"/>
+      <c r="G58" s="47"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="55">
         <v>140</v>
       </c>
       <c r="N58" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O58" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P58" s="31" t="s">
         <v>19</v>
@@ -4759,30 +4777,30 @@
       <c r="Q58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R58" s="35"/>
+      <c r="R58" s="34"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="42">
+      <c r="B59" s="41">
         <v>51</v>
       </c>
-      <c r="C59" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="74" t="s">
-        <v>177</v>
+      <c r="C59" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="71" t="s">
+        <v>176</v>
       </c>
       <c r="E59" s="24"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="50"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="58">
+      <c r="F59" s="46"/>
+      <c r="G59" s="47"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="55">
         <v>140</v>
       </c>
       <c r="N59" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O59" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P59" s="31" t="s">
         <v>19</v>
@@ -4790,61 +4808,61 @@
       <c r="Q59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R59" s="35"/>
+      <c r="R59" s="34"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="42">
+      <c r="B60" s="41">
         <v>52</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="47"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="55">
+        <v>140</v>
+      </c>
+      <c r="N60" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O60" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="P60" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="34"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B61" s="45">
+        <v>53</v>
+      </c>
+      <c r="C61" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="50"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="58">
+      <c r="D61" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="47"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="55">
         <v>140</v>
       </c>
-      <c r="N60" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="O60" s="31" t="s">
+      <c r="N61" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O61" s="31" t="s">
         <v>261</v>
-      </c>
-      <c r="P60" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R60" s="35"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="48">
-        <v>53</v>
-      </c>
-      <c r="C61" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="50"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="58">
-        <v>140</v>
-      </c>
-      <c r="N61" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="O61" s="31" t="s">
-        <v>262</v>
       </c>
       <c r="P61" s="31" t="s">
         <v>19</v>
@@ -4852,30 +4870,30 @@
       <c r="Q61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R61" s="35"/>
+      <c r="R61" s="34"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="42">
+      <c r="B62" s="41">
         <v>54</v>
       </c>
-      <c r="C62" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="74" t="s">
-        <v>189</v>
+      <c r="C62" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="71" t="s">
+        <v>188</v>
       </c>
       <c r="E62" s="24"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="50"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="58">
+      <c r="F62" s="46"/>
+      <c r="G62" s="47"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="55">
         <v>140</v>
       </c>
       <c r="N62" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O62" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P62" s="31" t="s">
         <v>24</v>
@@ -4883,61 +4901,61 @@
       <c r="Q62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R62" s="35"/>
+      <c r="R62" s="34"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="42">
+      <c r="B63" s="41">
         <v>55</v>
       </c>
-      <c r="C63" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" s="74" t="s">
-        <v>185</v>
+      <c r="C63" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="71" t="s">
+        <v>184</v>
       </c>
       <c r="E63" s="24"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="50"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="58">
+      <c r="F63" s="46"/>
+      <c r="G63" s="47"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="55">
         <v>140</v>
       </c>
       <c r="N63" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O63" s="31" t="s">
         <v>26</v>
       </c>
       <c r="P63" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R63" s="35"/>
+      <c r="R63" s="34"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="48">
+      <c r="B64" s="45">
         <v>56</v>
       </c>
-      <c r="C64" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="74" t="s">
-        <v>177</v>
+      <c r="C64" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="71" t="s">
+        <v>176</v>
       </c>
       <c r="E64" s="24"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="50"/>
-      <c r="L64" s="38"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="47"/>
+      <c r="L64" s="37"/>
       <c r="M64" s="32">
         <v>139</v>
       </c>
       <c r="N64" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O64" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P64" s="31" t="s">
         <v>16</v>
@@ -4945,30 +4963,30 @@
       <c r="Q64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R64" s="35"/>
+      <c r="R64" s="34"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="42">
+      <c r="B65" s="41">
         <v>57</v>
       </c>
-      <c r="C65" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="74" t="s">
-        <v>190</v>
+      <c r="C65" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="71" t="s">
+        <v>189</v>
       </c>
       <c r="E65" s="24"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="50"/>
-      <c r="L65" s="38"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="47"/>
+      <c r="L65" s="37"/>
       <c r="M65" s="32">
         <v>139</v>
       </c>
       <c r="N65" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O65" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P65" s="31" t="s">
         <v>16</v>
@@ -4976,30 +4994,30 @@
       <c r="Q65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R65" s="35"/>
+      <c r="R65" s="34"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="42">
+      <c r="B66" s="41">
         <v>58</v>
       </c>
-      <c r="C66" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="74" t="s">
-        <v>182</v>
+      <c r="C66" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="71" t="s">
+        <v>181</v>
       </c>
       <c r="E66" s="24"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="50"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="58">
+      <c r="F66" s="46"/>
+      <c r="G66" s="47"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="55">
         <v>140</v>
       </c>
       <c r="N66" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O66" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P66" s="31" t="s">
         <v>24</v>
@@ -5007,61 +5025,61 @@
       <c r="Q66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R66" s="35"/>
+      <c r="R66" s="34"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="48">
+      <c r="B67" s="45">
         <v>59</v>
       </c>
-      <c r="C67" s="68" t="s">
+      <c r="C67" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="47"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="55">
+        <v>140</v>
+      </c>
+      <c r="N67" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O67" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="P67" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="34"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B68" s="41">
+        <v>60</v>
+      </c>
+      <c r="C68" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="50"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="58">
+      <c r="D68" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="47"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="55">
         <v>140</v>
       </c>
-      <c r="N67" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="O67" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="P67" s="31" t="s">
+      <c r="N68" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O68" s="31" t="s">
         <v>269</v>
-      </c>
-      <c r="Q67" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="35"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="42">
-        <v>60</v>
-      </c>
-      <c r="C68" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="50"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="58">
-        <v>140</v>
-      </c>
-      <c r="N68" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="O68" s="31" t="s">
-        <v>270</v>
       </c>
       <c r="P68" s="31" t="s">
         <v>24</v>
@@ -5069,92 +5087,92 @@
       <c r="Q68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R68" s="35"/>
+      <c r="R68" s="34"/>
     </row>
     <row r="69" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="42">
+      <c r="B69" s="41">
         <v>61</v>
       </c>
-      <c r="C69" s="68" t="s">
+      <c r="C69" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="47"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="79">
+        <v>140</v>
+      </c>
+      <c r="N69" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="O69" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="P69" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q69" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="48"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="45">
+        <v>62</v>
+      </c>
+      <c r="C70" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="74" t="s">
+      <c r="D70" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="50"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="82">
-        <v>140</v>
-      </c>
-      <c r="N69" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="O69" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="P69" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q69" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" s="51"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="48">
-        <v>62</v>
-      </c>
-      <c r="C70" s="68" t="s">
+      <c r="E70" s="24"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="47"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="43">
+        <v>135</v>
+      </c>
+      <c r="N70" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="O70" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="P70" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q70" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="R70" s="49"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B71" s="41">
+        <v>63</v>
+      </c>
+      <c r="C71" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="D70" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="50"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="44">
-        <v>135</v>
-      </c>
-      <c r="N70" s="80" t="s">
-        <v>336</v>
-      </c>
-      <c r="O70" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="P70" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q70" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="R70" s="52"/>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="42">
-        <v>63</v>
-      </c>
-      <c r="C71" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" s="74" t="s">
-        <v>177</v>
+      <c r="D71" s="71" t="s">
+        <v>176</v>
       </c>
       <c r="E71" s="24"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="50"/>
-      <c r="L71" s="38"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="47"/>
+      <c r="L71" s="37"/>
       <c r="M71" s="32">
         <v>139</v>
       </c>
       <c r="N71" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O71" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P71" s="24" t="s">
         <v>24</v>
@@ -5165,27 +5183,27 @@
       <c r="R71" s="33"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="42">
+      <c r="B72" s="41">
         <v>64</v>
       </c>
-      <c r="C72" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" s="74" t="s">
-        <v>193</v>
+      <c r="C72" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="71" t="s">
+        <v>192</v>
       </c>
       <c r="E72" s="24"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="50"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="58">
+      <c r="F72" s="46"/>
+      <c r="G72" s="47"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="55">
         <v>140</v>
       </c>
       <c r="N72" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O72" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P72" s="24" t="s">
         <v>19</v>
@@ -5196,27 +5214,27 @@
       <c r="R72" s="33"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="48">
+      <c r="B73" s="45">
         <v>65</v>
       </c>
-      <c r="C73" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" s="74" t="s">
-        <v>193</v>
+      <c r="C73" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="71" t="s">
+        <v>192</v>
       </c>
       <c r="E73" s="24"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="50"/>
-      <c r="L73" s="38"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="47"/>
+      <c r="L73" s="37"/>
       <c r="M73" s="32">
         <v>139</v>
       </c>
       <c r="N73" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O73" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P73" s="24" t="s">
         <v>24</v>
@@ -5227,27 +5245,27 @@
       <c r="R73" s="33"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="42">
+      <c r="B74" s="41">
         <v>66</v>
       </c>
-      <c r="C74" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" s="74" t="s">
-        <v>177</v>
+      <c r="C74" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="71" t="s">
+        <v>176</v>
       </c>
       <c r="E74" s="24"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="50"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="58">
+      <c r="F74" s="46"/>
+      <c r="G74" s="47"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="55">
         <v>140</v>
       </c>
       <c r="N74" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O74" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P74" s="24" t="s">
         <v>19</v>
@@ -5258,27 +5276,27 @@
       <c r="R74" s="33"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="42">
+      <c r="B75" s="41">
         <v>67</v>
       </c>
-      <c r="C75" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" s="74" t="s">
+      <c r="C75" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="24"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="50"/>
-      <c r="L75" s="38"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="47"/>
+      <c r="L75" s="37"/>
       <c r="M75" s="32">
         <v>139</v>
       </c>
       <c r="N75" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O75" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P75" s="24" t="s">
         <v>24</v>
@@ -5289,27 +5307,27 @@
       <c r="R75" s="33"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="48">
+      <c r="B76" s="45">
         <v>68</v>
       </c>
-      <c r="C76" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="D76" s="74" t="s">
-        <v>194</v>
+      <c r="C76" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="71" t="s">
+        <v>193</v>
       </c>
       <c r="E76" s="24"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="50"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="58">
+      <c r="F76" s="46"/>
+      <c r="G76" s="47"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="55">
         <v>140</v>
       </c>
       <c r="N76" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O76" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P76" s="24" t="s">
         <v>19</v>
@@ -5320,27 +5338,27 @@
       <c r="R76" s="33"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="42">
+      <c r="B77" s="41">
         <v>69</v>
       </c>
-      <c r="C77" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="D77" s="74" t="s">
-        <v>195</v>
+      <c r="C77" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="71" t="s">
+        <v>194</v>
       </c>
       <c r="E77" s="24"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="50"/>
-      <c r="L77" s="38"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="47"/>
+      <c r="L77" s="37"/>
       <c r="M77" s="32">
         <v>139</v>
       </c>
       <c r="N77" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O77" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P77" s="24" t="s">
         <v>24</v>
@@ -5351,27 +5369,27 @@
       <c r="R77" s="33"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="42">
+      <c r="B78" s="41">
         <v>70</v>
       </c>
-      <c r="C78" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" s="74" t="s">
-        <v>36</v>
+      <c r="C78" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" s="71" t="s">
+        <v>35</v>
       </c>
       <c r="E78" s="24"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="50"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="58">
+      <c r="F78" s="46"/>
+      <c r="G78" s="47"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="55">
         <v>140</v>
       </c>
       <c r="N78" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O78" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P78" s="24" t="s">
         <v>19</v>
@@ -5382,27 +5400,27 @@
       <c r="R78" s="33"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="48">
+      <c r="B79" s="45">
         <v>71</v>
       </c>
-      <c r="C79" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="D79" s="74" t="s">
-        <v>184</v>
+      <c r="C79" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="71" t="s">
+        <v>183</v>
       </c>
       <c r="E79" s="24"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="50"/>
-      <c r="L79" s="38"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="47"/>
+      <c r="L79" s="37"/>
       <c r="M79" s="32">
         <v>139</v>
       </c>
       <c r="N79" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O79" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P79" s="24" t="s">
         <v>24</v>
@@ -5413,27 +5431,27 @@
       <c r="R79" s="33"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="42">
+      <c r="B80" s="41">
         <v>72</v>
       </c>
-      <c r="C80" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="D80" s="74" t="s">
-        <v>184</v>
+      <c r="C80" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" s="71" t="s">
+        <v>183</v>
       </c>
       <c r="E80" s="24"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="50"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="58">
+      <c r="F80" s="46"/>
+      <c r="G80" s="47"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="55">
         <v>140</v>
       </c>
       <c r="N80" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O80" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P80" s="24" t="s">
         <v>19</v>
@@ -5444,27 +5462,27 @@
       <c r="R80" s="33"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B81" s="42">
+      <c r="B81" s="41">
         <v>73</v>
       </c>
-      <c r="C81" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" s="74" t="s">
-        <v>184</v>
+      <c r="C81" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" s="71" t="s">
+        <v>183</v>
       </c>
       <c r="E81" s="24"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="50"/>
-      <c r="L81" s="38"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="47"/>
+      <c r="L81" s="37"/>
       <c r="M81" s="32">
         <v>139</v>
       </c>
       <c r="N81" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O81" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P81" s="24" t="s">
         <v>24</v>
@@ -5475,27 +5493,27 @@
       <c r="R81" s="33"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="48">
+      <c r="B82" s="45">
         <v>74</v>
       </c>
-      <c r="C82" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D82" s="74" t="s">
-        <v>184</v>
+      <c r="C82" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="71" t="s">
+        <v>183</v>
       </c>
       <c r="E82" s="24"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="50"/>
-      <c r="L82" s="38"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="47"/>
+      <c r="L82" s="37"/>
       <c r="M82" s="32">
         <v>139</v>
       </c>
       <c r="N82" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O82" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P82" s="24" t="s">
         <v>24</v>
@@ -5506,27 +5524,27 @@
       <c r="R82" s="33"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="42">
+      <c r="B83" s="41">
         <v>75</v>
       </c>
-      <c r="C83" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="74" t="s">
+      <c r="C83" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="50"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="58">
+      <c r="F83" s="46"/>
+      <c r="G83" s="47"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="55">
         <v>140</v>
       </c>
       <c r="N83" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O83" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P83" s="24" t="s">
         <v>19</v>
@@ -5537,27 +5555,27 @@
       <c r="R83" s="33"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="42">
+      <c r="B84" s="41">
         <v>76</v>
       </c>
-      <c r="C84" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="74" t="s">
-        <v>193</v>
+      <c r="C84" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="71" t="s">
+        <v>192</v>
       </c>
       <c r="E84" s="24"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="50"/>
-      <c r="L84" s="38"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="47"/>
+      <c r="L84" s="37"/>
       <c r="M84" s="32">
         <v>139</v>
       </c>
       <c r="N84" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O84" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P84" s="24" t="s">
         <v>24</v>
@@ -5568,27 +5586,27 @@
       <c r="R84" s="33"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="48">
+      <c r="B85" s="45">
         <v>77</v>
       </c>
-      <c r="C85" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="D85" s="74" t="s">
-        <v>193</v>
+      <c r="C85" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" s="71" t="s">
+        <v>192</v>
       </c>
       <c r="E85" s="24"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="50"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="58">
+      <c r="F85" s="46"/>
+      <c r="G85" s="47"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="55">
         <v>140</v>
       </c>
       <c r="N85" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O85" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P85" s="24" t="s">
         <v>19</v>
@@ -5599,27 +5617,27 @@
       <c r="R85" s="33"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B86" s="42">
+      <c r="B86" s="41">
         <v>78</v>
       </c>
-      <c r="C86" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="74" t="s">
-        <v>193</v>
+      <c r="C86" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="71" t="s">
+        <v>192</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="50"/>
-      <c r="L86" s="38"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="47"/>
+      <c r="L86" s="37"/>
       <c r="M86" s="32">
         <v>139</v>
       </c>
       <c r="N86" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O86" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P86" s="24" t="s">
         <v>24</v>
@@ -5630,27 +5648,27 @@
       <c r="R86" s="33"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="42">
+      <c r="B87" s="41">
         <v>79</v>
       </c>
-      <c r="C87" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" s="74" t="s">
-        <v>178</v>
+      <c r="C87" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="71" t="s">
+        <v>177</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="50"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="58">
+      <c r="F87" s="46"/>
+      <c r="G87" s="47"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="55">
         <v>140</v>
       </c>
       <c r="N87" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O87" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P87" s="24" t="s">
         <v>19</v>
@@ -5661,27 +5679,27 @@
       <c r="R87" s="33"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="48">
+      <c r="B88" s="45">
         <v>80</v>
       </c>
-      <c r="C88" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" s="74" t="s">
+      <c r="C88" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="50"/>
-      <c r="L88" s="38"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="47"/>
+      <c r="L88" s="37"/>
       <c r="M88" s="32">
         <v>139</v>
       </c>
       <c r="N88" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O88" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P88" s="24" t="s">
         <v>24</v>
@@ -5692,27 +5710,27 @@
       <c r="R88" s="33"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="42">
+      <c r="B89" s="41">
         <v>81</v>
       </c>
-      <c r="C89" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" s="74" t="s">
-        <v>199</v>
+      <c r="C89" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" s="71" t="s">
+        <v>198</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="50"/>
-      <c r="L89" s="38"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="47"/>
+      <c r="L89" s="37"/>
       <c r="M89" s="32">
         <v>139</v>
       </c>
       <c r="N89" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O89" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P89" s="24" t="s">
         <v>24</v>
@@ -5723,27 +5741,27 @@
       <c r="R89" s="33"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="42">
+      <c r="B90" s="41">
         <v>82</v>
       </c>
-      <c r="C90" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="74" t="s">
-        <v>186</v>
+      <c r="C90" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" s="71" t="s">
+        <v>185</v>
       </c>
       <c r="E90" s="24"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="50"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="58">
+      <c r="F90" s="46"/>
+      <c r="G90" s="47"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="55">
         <v>140</v>
       </c>
       <c r="N90" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O90" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P90" s="24" t="s">
         <v>19</v>
@@ -5754,27 +5772,27 @@
       <c r="R90" s="33"/>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="48">
+      <c r="B91" s="45">
         <v>83</v>
       </c>
-      <c r="C91" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="D91" s="65" t="s">
-        <v>199</v>
+      <c r="C91" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="E91" s="24"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="50"/>
-      <c r="L91" s="38"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="47"/>
+      <c r="L91" s="37"/>
       <c r="M91" s="32">
         <v>139</v>
       </c>
       <c r="N91" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O91" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P91" s="24" t="s">
         <v>24</v>
@@ -5785,27 +5803,27 @@
       <c r="R91" s="33"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="42">
+      <c r="B92" s="41">
         <v>84</v>
       </c>
-      <c r="C92" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="D92" s="65" t="s">
-        <v>177</v>
+      <c r="C92" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="62" t="s">
+        <v>176</v>
       </c>
       <c r="E92" s="24"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="50"/>
-      <c r="L92" s="38"/>
-      <c r="M92" s="58">
+      <c r="F92" s="46"/>
+      <c r="G92" s="47"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="55">
         <v>140</v>
       </c>
       <c r="N92" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O92" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P92" s="24" t="s">
         <v>19</v>
@@ -5816,27 +5834,27 @@
       <c r="R92" s="33"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="42">
+      <c r="B93" s="41">
         <v>85</v>
       </c>
-      <c r="C93" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="D93" s="65" t="s">
-        <v>199</v>
+      <c r="C93" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D93" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="E93" s="24"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="50"/>
-      <c r="L93" s="38"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="47"/>
+      <c r="L93" s="37"/>
       <c r="M93" s="32">
         <v>139</v>
       </c>
       <c r="N93" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O93" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P93" s="24" t="s">
         <v>24</v>
@@ -5847,27 +5865,27 @@
       <c r="R93" s="33"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="48">
+      <c r="B94" s="45">
         <v>86</v>
       </c>
-      <c r="C94" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="D94" s="65" t="s">
-        <v>196</v>
+      <c r="C94" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="62" t="s">
+        <v>195</v>
       </c>
       <c r="E94" s="24"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="50"/>
-      <c r="L94" s="38"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="47"/>
+      <c r="L94" s="37"/>
       <c r="M94" s="32">
         <v>139</v>
       </c>
       <c r="N94" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O94" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P94" s="24" t="s">
         <v>24</v>
@@ -5878,27 +5896,27 @@
       <c r="R94" s="33"/>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="42">
+      <c r="B95" s="41">
         <v>87</v>
       </c>
-      <c r="C95" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="D95" s="65" t="s">
-        <v>193</v>
+      <c r="C95" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" s="62" t="s">
+        <v>192</v>
       </c>
       <c r="E95" s="24"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="50"/>
-      <c r="L95" s="38"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="47"/>
+      <c r="L95" s="37"/>
       <c r="M95" s="32">
         <v>139</v>
       </c>
       <c r="N95" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O95" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P95" s="24" t="s">
         <v>24</v>
@@ -5909,27 +5927,27 @@
       <c r="R95" s="33"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="42">
+      <c r="B96" s="41">
         <v>88</v>
       </c>
-      <c r="C96" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D96" s="65" t="s">
-        <v>177</v>
+      <c r="C96" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" s="62" t="s">
+        <v>176</v>
       </c>
       <c r="E96" s="24"/>
-      <c r="F96" s="49"/>
-      <c r="G96" s="50"/>
-      <c r="L96" s="38"/>
-      <c r="M96" s="58">
+      <c r="F96" s="46"/>
+      <c r="G96" s="47"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="55">
         <v>140</v>
       </c>
       <c r="N96" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O96" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P96" s="24" t="s">
         <v>19</v>
@@ -5940,27 +5958,27 @@
       <c r="R96" s="33"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="48">
+      <c r="B97" s="45">
         <v>89</v>
       </c>
-      <c r="C97" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="D97" s="65" t="s">
+      <c r="C97" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="62" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="50"/>
-      <c r="L97" s="38"/>
-      <c r="M97" s="58">
+      <c r="F97" s="46"/>
+      <c r="G97" s="47"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="55">
         <v>140</v>
       </c>
       <c r="N97" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O97" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P97" s="24" t="s">
         <v>24</v>
@@ -5971,27 +5989,27 @@
       <c r="R97" s="33"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="42">
+      <c r="B98" s="41">
         <v>90</v>
       </c>
-      <c r="C98" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D98" s="65" t="s">
+      <c r="C98" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="62" t="s">
         <v>19</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="50"/>
-      <c r="L98" s="38"/>
-      <c r="M98" s="58">
+      <c r="F98" s="46"/>
+      <c r="G98" s="47"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="55">
         <v>140</v>
       </c>
       <c r="N98" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O98" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P98" s="24" t="s">
         <v>19</v>
@@ -6002,27 +6020,27 @@
       <c r="R98" s="33"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="42">
+      <c r="B99" s="41">
         <v>91</v>
       </c>
-      <c r="C99" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="D99" s="65" t="s">
-        <v>197</v>
+      <c r="C99" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="62" t="s">
+        <v>196</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="50"/>
-      <c r="L99" s="38"/>
-      <c r="M99" s="58">
+      <c r="F99" s="46"/>
+      <c r="G99" s="47"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="55">
         <v>140</v>
       </c>
       <c r="N99" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O99" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P99" s="24" t="s">
         <v>24</v>
@@ -6033,27 +6051,27 @@
       <c r="R99" s="33"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="48">
+      <c r="B100" s="45">
         <v>92</v>
       </c>
-      <c r="C100" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="D100" s="65" t="s">
-        <v>199</v>
+      <c r="C100" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="E100" s="24"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="50"/>
-      <c r="L100" s="38"/>
-      <c r="M100" s="58">
+      <c r="F100" s="46"/>
+      <c r="G100" s="47"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="55">
         <v>140</v>
       </c>
       <c r="N100" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O100" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P100" s="24" t="s">
         <v>24</v>
@@ -6064,27 +6082,27 @@
       <c r="R100" s="33"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B101" s="42">
+      <c r="B101" s="41">
         <v>93</v>
       </c>
-      <c r="C101" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="D101" s="65" t="s">
-        <v>178</v>
+      <c r="C101" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" s="62" t="s">
+        <v>177</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="50"/>
-      <c r="L101" s="38"/>
-      <c r="M101" s="58">
+      <c r="F101" s="46"/>
+      <c r="G101" s="47"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="55">
         <v>140</v>
       </c>
       <c r="N101" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O101" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P101" s="24" t="s">
         <v>19</v>
@@ -6095,27 +6113,27 @@
       <c r="R101" s="33"/>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="42">
+      <c r="B102" s="41">
         <v>94</v>
       </c>
-      <c r="C102" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="D102" s="65" t="s">
-        <v>184</v>
+      <c r="C102" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102" s="62" t="s">
+        <v>183</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="49"/>
-      <c r="G102" s="50"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="58">
+      <c r="F102" s="46"/>
+      <c r="G102" s="47"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="55">
         <v>140</v>
       </c>
       <c r="N102" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O102" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P102" s="24" t="s">
         <v>24</v>
@@ -6126,27 +6144,27 @@
       <c r="R102" s="33"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="48">
+      <c r="B103" s="45">
         <v>95</v>
       </c>
-      <c r="C103" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103" s="65" t="s">
-        <v>184</v>
+      <c r="C103" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D103" s="62" t="s">
+        <v>183</v>
       </c>
       <c r="E103" s="24"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="50"/>
-      <c r="L103" s="38"/>
-      <c r="M103" s="58">
+      <c r="F103" s="46"/>
+      <c r="G103" s="47"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="55">
         <v>140</v>
       </c>
       <c r="N103" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O103" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P103" s="24" t="s">
         <v>19</v>
@@ -6157,27 +6175,27 @@
       <c r="R103" s="33"/>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="42">
+      <c r="B104" s="41">
         <v>96</v>
       </c>
-      <c r="C104" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="D104" s="65" t="s">
-        <v>184</v>
+      <c r="C104" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" s="62" t="s">
+        <v>183</v>
       </c>
       <c r="E104" s="24"/>
-      <c r="F104" s="49"/>
-      <c r="G104" s="50"/>
-      <c r="L104" s="38"/>
-      <c r="M104" s="58">
+      <c r="F104" s="46"/>
+      <c r="G104" s="47"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="55">
         <v>140</v>
       </c>
       <c r="N104" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O104" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P104" s="24" t="s">
         <v>19</v>
@@ -6188,27 +6206,27 @@
       <c r="R104" s="33"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="42">
+      <c r="B105" s="41">
         <v>97</v>
       </c>
-      <c r="C105" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="D105" s="65" t="s">
-        <v>184</v>
+      <c r="C105" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="62" t="s">
+        <v>183</v>
       </c>
       <c r="E105" s="24"/>
-      <c r="F105" s="49"/>
-      <c r="G105" s="50"/>
-      <c r="L105" s="38"/>
-      <c r="M105" s="58">
+      <c r="F105" s="46"/>
+      <c r="G105" s="47"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="55">
         <v>140</v>
       </c>
       <c r="N105" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O105" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P105" s="24" t="s">
         <v>24</v>
@@ -6219,27 +6237,27 @@
       <c r="R105" s="33"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="48">
+      <c r="B106" s="45">
         <v>98</v>
       </c>
-      <c r="C106" s="65" t="s">
+      <c r="C106" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="47"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="55">
         <v>140</v>
       </c>
-      <c r="D106" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="50"/>
-      <c r="L106" s="38"/>
-      <c r="M106" s="58">
-        <v>140</v>
-      </c>
       <c r="N106" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O106" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P106" s="24" t="s">
         <v>24</v>
@@ -6250,27 +6268,27 @@
       <c r="R106" s="33"/>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="42">
+      <c r="B107" s="41">
         <v>99</v>
       </c>
-      <c r="C107" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="D107" s="65" t="s">
-        <v>36</v>
+      <c r="C107" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="62" t="s">
+        <v>35</v>
       </c>
       <c r="E107" s="24"/>
-      <c r="F107" s="49"/>
-      <c r="G107" s="50"/>
-      <c r="L107" s="38"/>
-      <c r="M107" s="58">
+      <c r="F107" s="46"/>
+      <c r="G107" s="47"/>
+      <c r="L107" s="37"/>
+      <c r="M107" s="55">
         <v>140</v>
       </c>
       <c r="N107" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O107" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P107" s="24" t="s">
         <v>19</v>
@@ -6281,89 +6299,89 @@
       <c r="R107" s="33"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="42">
+      <c r="B108" s="41">
         <v>100</v>
       </c>
-      <c r="C108" s="65" t="s">
+      <c r="C108" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="47"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="55">
+        <v>140</v>
+      </c>
+      <c r="N108" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O108" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="P108" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q108" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R108" s="33"/>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B109" s="45">
+        <v>101</v>
+      </c>
+      <c r="C109" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="D108" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="49"/>
-      <c r="G108" s="50"/>
-      <c r="L108" s="38"/>
-      <c r="M108" s="58">
+      <c r="D109" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E109" s="24"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="47"/>
+      <c r="L109" s="37"/>
+      <c r="M109" s="55">
         <v>140</v>
       </c>
-      <c r="N108" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="O108" s="24" t="s">
+      <c r="N109" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O109" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="P108" s="24" t="s">
+      <c r="P109" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="Q108" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R108" s="33"/>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="48">
-        <v>101</v>
-      </c>
-      <c r="C109" s="66" t="s">
+      <c r="Q109" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R109" s="33"/>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B110" s="41">
+        <v>102</v>
+      </c>
+      <c r="C110" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="D109" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="50"/>
-      <c r="L109" s="38"/>
-      <c r="M109" s="58">
-        <v>140</v>
-      </c>
-      <c r="N109" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="O109" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="P109" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q109" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R109" s="33"/>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="42">
-        <v>102</v>
-      </c>
-      <c r="C110" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="D110" s="65" t="s">
-        <v>199</v>
+      <c r="D110" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="E110" s="24"/>
-      <c r="F110" s="49"/>
-      <c r="G110" s="50"/>
-      <c r="L110" s="38"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="47"/>
+      <c r="L110" s="37"/>
       <c r="M110" s="32">
         <v>139</v>
       </c>
       <c r="N110" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O110" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P110" s="24" t="s">
         <v>24</v>
@@ -6374,27 +6392,27 @@
       <c r="R110" s="33"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="42">
+      <c r="B111" s="41">
         <v>103</v>
       </c>
-      <c r="C111" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="D111" s="65" t="s">
-        <v>199</v>
+      <c r="C111" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="E111" s="24"/>
-      <c r="F111" s="49"/>
-      <c r="G111" s="50"/>
-      <c r="L111" s="38"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="47"/>
+      <c r="L111" s="37"/>
       <c r="M111" s="32">
         <v>139</v>
       </c>
       <c r="N111" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O111" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P111" s="24" t="s">
         <v>24</v>
@@ -6405,27 +6423,27 @@
       <c r="R111" s="33"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="48">
+      <c r="B112" s="45">
         <v>104</v>
       </c>
-      <c r="C112" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D112" s="65" t="s">
-        <v>199</v>
+      <c r="C112" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="E112" s="24"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="50"/>
-      <c r="L112" s="38"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="47"/>
+      <c r="L112" s="37"/>
       <c r="M112" s="32">
         <v>139</v>
       </c>
       <c r="N112" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O112" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P112" s="24" t="s">
         <v>16</v>
@@ -6436,27 +6454,27 @@
       <c r="R112" s="33"/>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="42">
+      <c r="B113" s="41">
         <v>105</v>
       </c>
-      <c r="C113" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="D113" s="65" t="s">
-        <v>202</v>
+      <c r="C113" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D113" s="62" t="s">
+        <v>201</v>
       </c>
       <c r="E113" s="24"/>
-      <c r="F113" s="49"/>
-      <c r="G113" s="50"/>
-      <c r="L113" s="38"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="47"/>
+      <c r="L113" s="37"/>
       <c r="M113" s="32">
         <v>139</v>
       </c>
       <c r="N113" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O113" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P113" s="24" t="s">
         <v>16</v>
@@ -6467,58 +6485,58 @@
       <c r="R113" s="33"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="42">
+      <c r="B114" s="41">
         <v>106</v>
       </c>
-      <c r="C114" s="67" t="s">
+      <c r="C114" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D114" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="E114" s="24"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="47"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="55">
+        <v>140</v>
+      </c>
+      <c r="N114" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O114" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="P114" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q114" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R114" s="33"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B115" s="45">
+        <v>107</v>
+      </c>
+      <c r="C115" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="D114" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="E114" s="24"/>
-      <c r="F114" s="49"/>
-      <c r="G114" s="50"/>
-      <c r="L114" s="38"/>
-      <c r="M114" s="58">
+      <c r="D115" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E115" s="24"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="47"/>
+      <c r="L115" s="37"/>
+      <c r="M115" s="55">
         <v>140</v>
       </c>
-      <c r="N114" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="O114" s="24" t="s">
+      <c r="N115" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O115" s="24" t="s">
         <v>318</v>
-      </c>
-      <c r="P114" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q114" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R114" s="33"/>
-    </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="48">
-        <v>107</v>
-      </c>
-      <c r="C115" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D115" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="E115" s="24"/>
-      <c r="F115" s="49"/>
-      <c r="G115" s="50"/>
-      <c r="L115" s="38"/>
-      <c r="M115" s="58">
-        <v>140</v>
-      </c>
-      <c r="N115" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="O115" s="24" t="s">
-        <v>319</v>
       </c>
       <c r="P115" s="24" t="s">
         <v>24</v>
@@ -6529,27 +6547,27 @@
       <c r="R115" s="33"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="42">
+      <c r="B116" s="41">
         <v>108</v>
       </c>
-      <c r="C116" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="D116" s="65" t="s">
-        <v>199</v>
+      <c r="C116" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D116" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="E116" s="24"/>
-      <c r="F116" s="49"/>
-      <c r="G116" s="50"/>
-      <c r="L116" s="38"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="47"/>
+      <c r="L116" s="37"/>
       <c r="M116" s="32">
         <v>139</v>
       </c>
       <c r="N116" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O116" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P116" s="24" t="s">
         <v>24</v>
@@ -6560,89 +6578,89 @@
       <c r="R116" s="33"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="42">
+      <c r="B117" s="41">
         <v>109</v>
       </c>
-      <c r="C117" s="66" t="s">
+      <c r="C117" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D117" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="47"/>
+      <c r="L117" s="37"/>
+      <c r="M117" s="55">
+        <v>140</v>
+      </c>
+      <c r="N117" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O117" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="P117" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q117" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R117" s="33"/>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B118" s="45">
+        <v>110</v>
+      </c>
+      <c r="C118" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="D117" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="E117" s="24"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="50"/>
-      <c r="L117" s="38"/>
-      <c r="M117" s="58">
+      <c r="D118" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E118" s="24"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="47"/>
+      <c r="L118" s="37"/>
+      <c r="M118" s="55">
         <v>140</v>
       </c>
-      <c r="N117" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="O117" s="24" t="s">
+      <c r="N118" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O118" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="P117" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q117" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R117" s="33"/>
-    </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="48">
-        <v>110</v>
-      </c>
-      <c r="C118" s="66" t="s">
+      <c r="P118" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q118" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R118" s="33"/>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B119" s="41">
+        <v>111</v>
+      </c>
+      <c r="C119" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="D118" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="E118" s="24"/>
-      <c r="F118" s="49"/>
-      <c r="G118" s="50"/>
-      <c r="L118" s="38"/>
-      <c r="M118" s="58">
+      <c r="D119" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="47"/>
+      <c r="L119" s="37"/>
+      <c r="M119" s="55">
         <v>140</v>
       </c>
-      <c r="N118" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="O118" s="24" t="s">
+      <c r="N119" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O119" s="24" t="s">
         <v>322</v>
-      </c>
-      <c r="P118" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q118" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R118" s="33"/>
-    </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="42">
-        <v>111</v>
-      </c>
-      <c r="C119" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="D119" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="E119" s="24"/>
-      <c r="F119" s="49"/>
-      <c r="G119" s="50"/>
-      <c r="L119" s="38"/>
-      <c r="M119" s="58">
-        <v>140</v>
-      </c>
-      <c r="N119" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="O119" s="24" t="s">
-        <v>323</v>
       </c>
       <c r="P119" s="24" t="s">
         <v>24</v>
@@ -6653,27 +6671,27 @@
       <c r="R119" s="33"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="42">
+      <c r="B120" s="41">
         <v>112</v>
       </c>
-      <c r="C120" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="D120" s="65" t="s">
-        <v>198</v>
+      <c r="C120" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D120" s="62" t="s">
+        <v>197</v>
       </c>
       <c r="E120" s="24"/>
-      <c r="F120" s="49"/>
-      <c r="G120" s="50"/>
-      <c r="L120" s="38"/>
-      <c r="M120" s="58">
+      <c r="F120" s="46"/>
+      <c r="G120" s="47"/>
+      <c r="L120" s="37"/>
+      <c r="M120" s="55">
         <v>140</v>
       </c>
       <c r="N120" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O120" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P120" s="24" t="s">
         <v>24</v>
@@ -6684,27 +6702,27 @@
       <c r="R120" s="33"/>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="48">
+      <c r="B121" s="45">
         <v>113</v>
       </c>
-      <c r="C121" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="D121" s="65" t="s">
-        <v>36</v>
+      <c r="C121" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" s="62" t="s">
+        <v>35</v>
       </c>
       <c r="E121" s="24"/>
-      <c r="F121" s="49"/>
-      <c r="G121" s="50"/>
-      <c r="L121" s="38"/>
-      <c r="M121" s="58">
+      <c r="F121" s="46"/>
+      <c r="G121" s="47"/>
+      <c r="L121" s="37"/>
+      <c r="M121" s="55">
         <v>140</v>
       </c>
       <c r="N121" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O121" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P121" s="24" t="s">
         <v>24</v>
@@ -6715,27 +6733,27 @@
       <c r="R121" s="33"/>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="42">
+      <c r="B122" s="41">
         <v>114</v>
       </c>
-      <c r="C122" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="D122" s="65" t="s">
-        <v>180</v>
+      <c r="C122" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D122" s="62" t="s">
+        <v>179</v>
       </c>
       <c r="E122" s="24"/>
-      <c r="F122" s="49"/>
-      <c r="G122" s="50"/>
-      <c r="L122" s="38"/>
-      <c r="M122" s="58">
+      <c r="F122" s="46"/>
+      <c r="G122" s="47"/>
+      <c r="L122" s="37"/>
+      <c r="M122" s="55">
         <v>140</v>
       </c>
       <c r="N122" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O122" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P122" s="24" t="s">
         <v>24</v>
@@ -6746,27 +6764,27 @@
       <c r="R122" s="33"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="42">
+      <c r="B123" s="41">
         <v>115</v>
       </c>
-      <c r="C123" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="D123" s="65" t="s">
-        <v>199</v>
+      <c r="C123" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D123" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="E123" s="24"/>
-      <c r="F123" s="49"/>
-      <c r="G123" s="50"/>
-      <c r="L123" s="38"/>
-      <c r="M123" s="58">
+      <c r="F123" s="46"/>
+      <c r="G123" s="47"/>
+      <c r="L123" s="37"/>
+      <c r="M123" s="55">
         <v>140</v>
       </c>
       <c r="N123" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O123" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P123" s="24" t="s">
         <v>24</v>
@@ -6777,58 +6795,58 @@
       <c r="R123" s="33"/>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="48">
+      <c r="B124" s="45">
         <v>116</v>
       </c>
-      <c r="C124" s="66" t="s">
+      <c r="C124" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D124" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E124" s="24"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="47"/>
+      <c r="L124" s="37"/>
+      <c r="M124" s="55">
+        <v>140</v>
+      </c>
+      <c r="N124" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O124" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="P124" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q124" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R124" s="33"/>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B125" s="41">
+        <v>117</v>
+      </c>
+      <c r="C125" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D124" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="E124" s="24"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="50"/>
-      <c r="L124" s="38"/>
-      <c r="M124" s="58">
+      <c r="D125" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E125" s="24"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="47"/>
+      <c r="L125" s="37"/>
+      <c r="M125" s="55">
         <v>140</v>
       </c>
-      <c r="N124" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="O124" s="24" t="s">
+      <c r="N125" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O125" s="24" t="s">
         <v>328</v>
-      </c>
-      <c r="P124" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q124" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R124" s="33"/>
-    </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="42">
-        <v>117</v>
-      </c>
-      <c r="C125" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="D125" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="49"/>
-      <c r="G125" s="50"/>
-      <c r="L125" s="38"/>
-      <c r="M125" s="58">
-        <v>140</v>
-      </c>
-      <c r="N125" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="O125" s="24" t="s">
-        <v>329</v>
       </c>
       <c r="P125" s="24" t="s">
         <v>24</v>
@@ -6839,27 +6857,27 @@
       <c r="R125" s="33"/>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="42">
+      <c r="B126" s="41">
         <v>118</v>
       </c>
-      <c r="C126" s="65" t="s">
-        <v>160</v>
-      </c>
-      <c r="D126" s="65" t="s">
-        <v>199</v>
+      <c r="C126" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D126" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="E126" s="24"/>
-      <c r="F126" s="49"/>
-      <c r="G126" s="50"/>
-      <c r="L126" s="38"/>
-      <c r="M126" s="58">
+      <c r="F126" s="46"/>
+      <c r="G126" s="47"/>
+      <c r="L126" s="37"/>
+      <c r="M126" s="55">
         <v>140</v>
       </c>
       <c r="N126" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O126" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P126" s="24" t="s">
         <v>24</v>
@@ -6870,120 +6888,120 @@
       <c r="R126" s="33"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="48">
+      <c r="B127" s="45">
         <v>119</v>
       </c>
-      <c r="C127" s="65" t="s">
+      <c r="C127" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="D127" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E127" s="24"/>
+      <c r="F127" s="46"/>
+      <c r="G127" s="47"/>
+      <c r="L127" s="37"/>
+      <c r="M127" s="55">
+        <v>140</v>
+      </c>
+      <c r="N127" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O127" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="P127" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q127" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R127" s="33"/>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B128" s="41">
+        <v>120</v>
+      </c>
+      <c r="C128" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D127" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="E127" s="24"/>
-      <c r="F127" s="49"/>
-      <c r="G127" s="50"/>
-      <c r="L127" s="38"/>
-      <c r="M127" s="58">
+      <c r="D128" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="E128" s="24"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="47"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="55">
         <v>140</v>
       </c>
-      <c r="N127" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="O127" s="24" t="s">
+      <c r="N128" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O128" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="P127" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q127" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R127" s="33"/>
-    </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="42">
-        <v>120</v>
-      </c>
-      <c r="C128" s="65" t="s">
+      <c r="P128" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q128" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R128" s="33"/>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B129" s="41">
+        <v>121</v>
+      </c>
+      <c r="C129" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="D128" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="49"/>
-      <c r="G128" s="50"/>
-      <c r="L128" s="38"/>
-      <c r="M128" s="58">
+      <c r="D129" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="E129" s="24"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="47"/>
+      <c r="L129" s="37"/>
+      <c r="M129" s="55">
         <v>140</v>
       </c>
-      <c r="N128" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="O128" s="24" t="s">
+      <c r="N129" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O129" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="P128" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q128" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R128" s="33"/>
-    </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="42">
-        <v>121</v>
-      </c>
-      <c r="C129" s="65" t="s">
+      <c r="P129" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q129" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R129" s="33"/>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B130" s="45">
+        <v>122</v>
+      </c>
+      <c r="C130" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D129" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="E129" s="24"/>
-      <c r="F129" s="49"/>
-      <c r="G129" s="50"/>
-      <c r="L129" s="38"/>
-      <c r="M129" s="58">
+      <c r="D130" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="E130" s="24"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="47"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="55">
         <v>140</v>
       </c>
-      <c r="N129" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="O129" s="24" t="s">
+      <c r="N130" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O130" s="24" t="s">
         <v>333</v>
-      </c>
-      <c r="P129" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q129" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R129" s="33"/>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B130" s="48">
-        <v>122</v>
-      </c>
-      <c r="C130" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="D130" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="E130" s="24"/>
-      <c r="F130" s="49"/>
-      <c r="G130" s="50"/>
-      <c r="L130" s="38"/>
-      <c r="M130" s="58">
-        <v>140</v>
-      </c>
-      <c r="N130" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="O130" s="24" t="s">
-        <v>334</v>
       </c>
       <c r="P130" s="24" t="s">
         <v>24</v>
@@ -6994,27 +7012,27 @@
       <c r="R130" s="33"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="42">
+      <c r="B131" s="41">
         <v>123</v>
       </c>
-      <c r="C131" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="D131" s="65" t="s">
-        <v>199</v>
+      <c r="C131" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D131" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="E131" s="24"/>
-      <c r="F131" s="49"/>
-      <c r="G131" s="50"/>
-      <c r="L131" s="38"/>
-      <c r="M131" s="58">
+      <c r="F131" s="46"/>
+      <c r="G131" s="47"/>
+      <c r="L131" s="37"/>
+      <c r="M131" s="55">
         <v>140</v>
       </c>
       <c r="N131" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O131" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P131" s="24" t="s">
         <v>24</v>
@@ -7025,27 +7043,27 @@
       <c r="R131" s="33"/>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="42">
+      <c r="B132" s="41">
         <v>124</v>
       </c>
-      <c r="C132" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="D132" s="65" t="s">
+      <c r="C132" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="D132" s="62" t="s">
         <v>19</v>
       </c>
       <c r="E132" s="24"/>
-      <c r="F132" s="49"/>
-      <c r="G132" s="50"/>
-      <c r="L132" s="38"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="47"/>
+      <c r="L132" s="37"/>
       <c r="M132" s="32">
         <v>10</v>
       </c>
       <c r="N132" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O132" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P132" s="24" t="s">
         <v>19</v>
@@ -7056,120 +7074,120 @@
       <c r="R132" s="33"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="48">
+      <c r="B133" s="45">
         <v>125</v>
       </c>
-      <c r="C133" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="D133" s="65" t="s">
+      <c r="C133" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D133" s="62" t="s">
         <v>19</v>
       </c>
       <c r="E133" s="24"/>
-      <c r="F133" s="49"/>
-      <c r="G133" s="50"/>
-      <c r="L133" s="38"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="47"/>
+      <c r="L133" s="37"/>
       <c r="M133" s="32">
         <v>1</v>
       </c>
       <c r="N133" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O133" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="P133" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q133" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R133" s="33"/>
+    </row>
+    <row r="134" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="41">
+        <v>126</v>
+      </c>
+      <c r="C134" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D134" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E134" s="24"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="47"/>
+      <c r="L134" s="38"/>
+      <c r="M134" s="81">
+        <v>2</v>
+      </c>
+      <c r="N134" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="O134" s="82" t="s">
         <v>341</v>
       </c>
-      <c r="P133" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q133" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="R133" s="33"/>
-    </row>
-    <row r="134" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="42">
-        <v>126</v>
-      </c>
-      <c r="C134" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="D134" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="49"/>
-      <c r="G134" s="50"/>
-      <c r="L134" s="39"/>
-      <c r="M134" s="84">
-        <v>2</v>
-      </c>
-      <c r="N134" s="85" t="s">
-        <v>336</v>
-      </c>
-      <c r="O134" s="85" t="s">
-        <v>342</v>
-      </c>
-      <c r="P134" s="85" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q134" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="R134" s="55"/>
+      <c r="P134" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q134" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="52"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="42">
+      <c r="B135" s="41">
         <v>127</v>
       </c>
-      <c r="C135" s="65" t="s">
+      <c r="C135" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D135" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E135" s="24"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="47"/>
+      <c r="L135" s="51"/>
+      <c r="M135" s="43">
+        <v>141</v>
+      </c>
+      <c r="N135" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="O135" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="P135" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q135" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R135" s="49"/>
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B136" s="45">
+        <v>128</v>
+      </c>
+      <c r="C136" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D135" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="49"/>
-      <c r="G135" s="50"/>
-      <c r="L135" s="54"/>
-      <c r="M135" s="44">
-        <v>141</v>
-      </c>
-      <c r="N135" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="O135" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="P135" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q135" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="R135" s="52"/>
-    </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="48">
-        <v>128</v>
-      </c>
-      <c r="C136" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="D136" s="65" t="s">
-        <v>203</v>
+      <c r="D136" s="62" t="s">
+        <v>202</v>
       </c>
       <c r="E136" s="24"/>
-      <c r="F136" s="49"/>
-      <c r="G136" s="50"/>
-      <c r="L136" s="38"/>
+      <c r="F136" s="46"/>
+      <c r="G136" s="47"/>
+      <c r="L136" s="37"/>
       <c r="M136" s="32">
         <v>135</v>
       </c>
       <c r="N136" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O136" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P136" s="31" t="s">
         <v>16</v>
@@ -7180,27 +7198,27 @@
       <c r="R136" s="33"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="42">
+      <c r="B137" s="41">
         <v>129</v>
       </c>
-      <c r="C137" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D137" s="65" t="s">
-        <v>203</v>
+      <c r="C137" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D137" s="62" t="s">
+        <v>202</v>
       </c>
       <c r="E137" s="24"/>
-      <c r="F137" s="49"/>
-      <c r="G137" s="50"/>
-      <c r="L137" s="38"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="47"/>
+      <c r="L137" s="37"/>
       <c r="M137" s="32">
         <v>142</v>
       </c>
       <c r="N137" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O137" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P137" s="31" t="s">
         <v>24</v>
@@ -7211,58 +7229,58 @@
       <c r="R137" s="33"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="42">
+      <c r="B138" s="41">
         <v>130</v>
       </c>
-      <c r="C138" s="65" t="s">
+      <c r="C138" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="D138" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="47"/>
+      <c r="L138" s="37"/>
+      <c r="M138" s="117">
+        <v>144</v>
+      </c>
+      <c r="N138" s="118" t="s">
+        <v>346</v>
+      </c>
+      <c r="O138" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="P138" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q138" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="R138" s="119"/>
+    </row>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B139" s="45">
+        <v>131</v>
+      </c>
+      <c r="C139" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D138" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="49"/>
-      <c r="G138" s="50"/>
-      <c r="L138" s="38"/>
-      <c r="M138" s="32">
-        <v>144</v>
-      </c>
-      <c r="N138" s="31" t="s">
-        <v>347</v>
-      </c>
-      <c r="O138" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="P138" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q138" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="R138" s="33"/>
-    </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="48">
-        <v>131</v>
-      </c>
-      <c r="C139" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="D139" s="65" t="s">
-        <v>177</v>
+      <c r="D139" s="62" t="s">
+        <v>176</v>
       </c>
       <c r="E139" s="24"/>
-      <c r="F139" s="49"/>
-      <c r="G139" s="50"/>
-      <c r="L139" s="38"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="47"/>
+      <c r="L139" s="37"/>
       <c r="M139" s="32">
         <v>143</v>
       </c>
       <c r="N139" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O139" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P139" s="31" t="s">
         <v>24</v>
@@ -7273,24 +7291,24 @@
       <c r="R139" s="33"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B140" s="42">
+      <c r="B140" s="41">
         <v>132</v>
       </c>
-      <c r="C140" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="D140" s="65" t="s">
-        <v>36</v>
+      <c r="C140" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D140" s="62" t="s">
+        <v>35</v>
       </c>
       <c r="E140" s="24"/>
-      <c r="F140" s="49"/>
-      <c r="G140" s="50"/>
-      <c r="L140" s="38"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="47"/>
+      <c r="L140" s="37"/>
       <c r="M140" s="32">
         <v>138</v>
       </c>
       <c r="N140" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O140" s="31" t="s">
         <v>23</v>
@@ -7304,24 +7322,24 @@
       <c r="R140" s="33"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B141" s="42">
+      <c r="B141" s="41">
         <v>133</v>
       </c>
-      <c r="C141" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="D141" s="65" t="s">
-        <v>176</v>
+      <c r="C141" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="D141" s="62" t="s">
+        <v>175</v>
       </c>
       <c r="E141" s="24"/>
-      <c r="F141" s="49"/>
-      <c r="G141" s="50"/>
-      <c r="L141" s="38"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="47"/>
+      <c r="L141" s="37"/>
       <c r="M141" s="32">
         <v>137</v>
       </c>
       <c r="N141" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O141" s="31" t="s">
         <v>21</v>
@@ -7335,24 +7353,24 @@
       <c r="R141" s="33"/>
     </row>
     <row r="142" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="48">
+      <c r="B142" s="45">
         <v>134</v>
       </c>
-      <c r="C142" s="70" t="s">
+      <c r="C142" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="D142" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="D142" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="E142" s="40"/>
-      <c r="F142" s="63"/>
-      <c r="G142" s="64"/>
-      <c r="L142" s="38"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="61"/>
+      <c r="L142" s="37"/>
       <c r="M142" s="32">
         <v>136</v>
       </c>
       <c r="N142" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O142" s="31" t="s">
         <v>18</v>
@@ -7366,18 +7384,18 @@
       <c r="R142" s="33"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L143" s="38"/>
+      <c r="L143" s="37"/>
       <c r="M143" s="32">
         <v>140</v>
       </c>
       <c r="N143" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O143" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P143" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q143" s="31" t="s">
         <v>20</v>
@@ -7385,42 +7403,42 @@
       <c r="R143" s="33"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L144" s="38"/>
+      <c r="L144" s="37"/>
       <c r="M144" s="32">
         <v>140</v>
       </c>
       <c r="N144" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O144" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="P144" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q144" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R144" s="33"/>
+    </row>
+    <row r="145" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L145" s="38"/>
+      <c r="M145" s="83">
+        <v>145</v>
+      </c>
+      <c r="N145" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="P144" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q144" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R144" s="33"/>
-    </row>
-    <row r="145" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L145" s="39"/>
-      <c r="M145" s="86">
-        <v>145</v>
-      </c>
-      <c r="N145" s="87" t="s">
-        <v>347</v>
-      </c>
-      <c r="O145" s="87" t="s">
+      <c r="O145" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="P145" s="87" t="s">
+      <c r="P145" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q145" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="R145" s="34"/>
+      <c r="Q145" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="R145" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Compra Cartera/Mapeos_CON_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_CON_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="360">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1279,6 +1279,9 @@
   </si>
   <si>
     <t>Fecha de inicio del registro</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -2379,6 +2382,17 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2436,17 +2450,6 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="87">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2926,7 +2929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2936,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O140" sqref="O140"/>
+    <sheetView tabSelected="1" topLeftCell="L124" workbookViewId="0">
+      <selection activeCell="Q143" sqref="Q143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2976,28 +2979,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="102"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="24" t="s">
         <v>33</v>
       </c>
@@ -3008,13 +3011,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="115"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="24" t="s">
         <v>357</v>
       </c>
@@ -3025,13 +3028,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="108"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="116"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="28" t="s">
         <v>358</v>
       </c>
@@ -3046,29 +3049,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="111" t="s">
+      <c r="I7" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="113"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="120"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3158,7 +3161,9 @@
       <c r="Q9" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="36"/>
+      <c r="R9" s="36" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="41">
@@ -3213,7 +3218,9 @@
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="44"/>
-      <c r="G11" s="89"/>
+      <c r="G11" s="89" t="s">
+        <v>359</v>
+      </c>
       <c r="H11" s="37"/>
       <c r="I11" s="92">
         <v>137</v>
@@ -3363,7 +3370,9 @@
       <c r="Q14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="34"/>
+      <c r="R14" s="34" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="41">
@@ -4576,22 +4585,22 @@
       <c r="F52" s="46"/>
       <c r="G52" s="47"/>
       <c r="L52" s="37"/>
-      <c r="M52" s="117">
+      <c r="M52" s="98">
         <v>144</v>
       </c>
-      <c r="N52" s="118" t="s">
+      <c r="N52" s="99" t="s">
         <v>271</v>
       </c>
-      <c r="O52" s="118" t="s">
+      <c r="O52" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="P52" s="118" t="s">
+      <c r="P52" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="Q52" s="118" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="119"/>
+      <c r="Q52" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="100"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="41">
@@ -5149,7 +5158,9 @@
       <c r="Q70" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R70" s="49"/>
+      <c r="R70" s="49" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="41">
@@ -5707,7 +5718,9 @@
       <c r="Q88" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="R88" s="33"/>
+      <c r="R88" s="33" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B89" s="41">
@@ -7164,7 +7177,9 @@
       <c r="Q135" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R135" s="49"/>
+      <c r="R135" s="49" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B136" s="45">
@@ -7195,7 +7210,9 @@
       <c r="Q136" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R136" s="33"/>
+      <c r="R136" s="33" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B137" s="41">
@@ -7226,7 +7243,9 @@
       <c r="Q137" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R137" s="33"/>
+      <c r="R137" s="33" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B138" s="41">
@@ -7242,22 +7261,22 @@
       <c r="F138" s="46"/>
       <c r="G138" s="47"/>
       <c r="L138" s="37"/>
-      <c r="M138" s="117">
+      <c r="M138" s="98">
         <v>144</v>
       </c>
-      <c r="N138" s="118" t="s">
+      <c r="N138" s="99" t="s">
         <v>346</v>
       </c>
-      <c r="O138" s="118" t="s">
+      <c r="O138" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="P138" s="118" t="s">
+      <c r="P138" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="Q138" s="118" t="s">
+      <c r="Q138" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="R138" s="119"/>
+      <c r="R138" s="100"/>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B139" s="45">
@@ -7438,7 +7457,7 @@
       <c r="Q145" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="R145" s="120"/>
+      <c r="R145" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Compra Cartera/Mapeos_CON_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_CON_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="365">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1282,6 +1282,21 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>ID_TIP_AMORT</t>
+  </si>
+  <si>
+    <t>NRO_MSS_GRAC_PAG_INT</t>
+  </si>
+  <si>
+    <t>NRO_MSS_GRAC_PAG_CAP</t>
+  </si>
+  <si>
+    <t>TSA_INTR_INICL</t>
+  </si>
+  <si>
+    <t>NUMERIC(8,4)</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +2944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2937,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R145"/>
+  <dimension ref="B1:R149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L124" workbookViewId="0">
-      <selection activeCell="Q143" sqref="Q143"/>
+    <sheetView tabSelected="1" topLeftCell="K43" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5051,16 +5066,16 @@
       <c r="G67" s="47"/>
       <c r="L67" s="37"/>
       <c r="M67" s="55">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N67" s="31" t="s">
         <v>271</v>
       </c>
       <c r="O67" s="31" t="s">
-        <v>267</v>
+        <v>360</v>
       </c>
       <c r="P67" s="31" t="s">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="Q67" s="31" t="s">
         <v>20</v>
@@ -5088,17 +5103,17 @@
         <v>271</v>
       </c>
       <c r="O68" s="31" t="s">
-        <v>269</v>
+        <v>361</v>
       </c>
       <c r="P68" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q68" s="31" t="s">
         <v>20</v>
       </c>
       <c r="R68" s="34"/>
     </row>
-    <row r="69" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="41">
         <v>61</v>
       </c>
@@ -5112,22 +5127,22 @@
       <c r="F69" s="46"/>
       <c r="G69" s="47"/>
       <c r="L69" s="37"/>
-      <c r="M69" s="79">
+      <c r="M69" s="55">
         <v>140</v>
       </c>
-      <c r="N69" s="54" t="s">
+      <c r="N69" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="O69" s="80" t="s">
-        <v>270</v>
-      </c>
-      <c r="P69" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q69" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" s="48"/>
+      <c r="O69" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="P69" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="34"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="45">
@@ -5142,25 +5157,23 @@
       <c r="E70" s="24"/>
       <c r="F70" s="46"/>
       <c r="G70" s="47"/>
-      <c r="L70" s="51"/>
-      <c r="M70" s="43">
-        <v>135</v>
-      </c>
-      <c r="N70" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="O70" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="P70" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q70" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="R70" s="49" t="s">
-        <v>359</v>
-      </c>
+      <c r="L70" s="37"/>
+      <c r="M70" s="55">
+        <v>140</v>
+      </c>
+      <c r="N70" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O70" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="P70" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="34"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="41">
@@ -5176,22 +5189,22 @@
       <c r="F71" s="46"/>
       <c r="G71" s="47"/>
       <c r="L71" s="37"/>
-      <c r="M71" s="32">
-        <v>139</v>
-      </c>
-      <c r="N71" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="O71" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="P71" s="24" t="s">
-        <v>24</v>
+      <c r="M71" s="55">
+        <v>140</v>
+      </c>
+      <c r="N71" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O71" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="P71" s="31" t="s">
+        <v>268</v>
       </c>
       <c r="Q71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R71" s="33"/>
+      <c r="R71" s="34"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="41">
@@ -5210,21 +5223,21 @@
       <c r="M72" s="55">
         <v>140</v>
       </c>
-      <c r="N72" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="O72" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="P72" s="24" t="s">
-        <v>19</v>
+      <c r="N72" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O72" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="P72" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="Q72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R72" s="33"/>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R72" s="34"/>
+    </row>
+    <row r="73" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="45">
         <v>65</v>
       </c>
@@ -5238,22 +5251,22 @@
       <c r="F73" s="46"/>
       <c r="G73" s="47"/>
       <c r="L73" s="37"/>
-      <c r="M73" s="32">
-        <v>139</v>
-      </c>
-      <c r="N73" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="O73" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="P73" s="24" t="s">
+      <c r="M73" s="79">
+        <v>140</v>
+      </c>
+      <c r="N73" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="O73" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="P73" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q73" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R73" s="33"/>
+      <c r="Q73" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="48"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="41">
@@ -5268,23 +5281,25 @@
       <c r="E74" s="24"/>
       <c r="F74" s="46"/>
       <c r="G74" s="47"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="55">
-        <v>140</v>
-      </c>
-      <c r="N74" s="24" t="s">
+      <c r="L74" s="51"/>
+      <c r="M74" s="43">
+        <v>135</v>
+      </c>
+      <c r="N74" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="O74" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="P74" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q74" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R74" s="33"/>
+      <c r="O74" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="P74" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q74" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="R74" s="49" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="41">
@@ -5307,7 +5322,7 @@
         <v>335</v>
       </c>
       <c r="O75" s="24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P75" s="24" t="s">
         <v>24</v>
@@ -5338,7 +5353,7 @@
         <v>335</v>
       </c>
       <c r="O76" s="24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P76" s="24" t="s">
         <v>19</v>
@@ -5369,7 +5384,7 @@
         <v>335</v>
       </c>
       <c r="O77" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P77" s="24" t="s">
         <v>24</v>
@@ -5400,7 +5415,7 @@
         <v>335</v>
       </c>
       <c r="O78" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P78" s="24" t="s">
         <v>19</v>
@@ -5431,7 +5446,7 @@
         <v>335</v>
       </c>
       <c r="O79" s="24" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P79" s="24" t="s">
         <v>24</v>
@@ -5462,7 +5477,7 @@
         <v>335</v>
       </c>
       <c r="O80" s="24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P80" s="24" t="s">
         <v>19</v>
@@ -5493,7 +5508,7 @@
         <v>335</v>
       </c>
       <c r="O81" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P81" s="24" t="s">
         <v>24</v>
@@ -5517,17 +5532,17 @@
       <c r="F82" s="46"/>
       <c r="G82" s="47"/>
       <c r="L82" s="37"/>
-      <c r="M82" s="32">
-        <v>139</v>
+      <c r="M82" s="55">
+        <v>140</v>
       </c>
       <c r="N82" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O82" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P82" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q82" s="31" t="s">
         <v>20</v>
@@ -5548,17 +5563,17 @@
       <c r="F83" s="46"/>
       <c r="G83" s="47"/>
       <c r="L83" s="37"/>
-      <c r="M83" s="55">
-        <v>140</v>
+      <c r="M83" s="32">
+        <v>139</v>
       </c>
       <c r="N83" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O83" s="24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P83" s="24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q83" s="31" t="s">
         <v>20</v>
@@ -5579,17 +5594,17 @@
       <c r="F84" s="46"/>
       <c r="G84" s="47"/>
       <c r="L84" s="37"/>
-      <c r="M84" s="32">
-        <v>139</v>
+      <c r="M84" s="55">
+        <v>140</v>
       </c>
       <c r="N84" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O84" s="24" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P84" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q84" s="31" t="s">
         <v>20</v>
@@ -5610,17 +5625,17 @@
       <c r="F85" s="46"/>
       <c r="G85" s="47"/>
       <c r="L85" s="37"/>
-      <c r="M85" s="55">
-        <v>140</v>
+      <c r="M85" s="32">
+        <v>139</v>
       </c>
       <c r="N85" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O85" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P85" s="24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q85" s="31" t="s">
         <v>20</v>
@@ -5648,7 +5663,7 @@
         <v>335</v>
       </c>
       <c r="O86" s="24" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P86" s="24" t="s">
         <v>24</v>
@@ -5679,7 +5694,7 @@
         <v>335</v>
       </c>
       <c r="O87" s="24" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P87" s="24" t="s">
         <v>19</v>
@@ -5710,17 +5725,15 @@
         <v>335</v>
       </c>
       <c r="O88" s="24" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q88" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="R88" s="33" t="s">
-        <v>359</v>
-      </c>
+      <c r="Q88" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R88" s="33"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B89" s="41">
@@ -5736,17 +5749,17 @@
       <c r="F89" s="46"/>
       <c r="G89" s="47"/>
       <c r="L89" s="37"/>
-      <c r="M89" s="32">
-        <v>139</v>
+      <c r="M89" s="55">
+        <v>140</v>
       </c>
       <c r="N89" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O89" s="24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P89" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q89" s="31" t="s">
         <v>20</v>
@@ -5767,17 +5780,17 @@
       <c r="F90" s="46"/>
       <c r="G90" s="47"/>
       <c r="L90" s="37"/>
-      <c r="M90" s="55">
-        <v>140</v>
+      <c r="M90" s="32">
+        <v>139</v>
       </c>
       <c r="N90" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O90" s="24" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P90" s="24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q90" s="31" t="s">
         <v>20</v>
@@ -5798,17 +5811,17 @@
       <c r="F91" s="46"/>
       <c r="G91" s="47"/>
       <c r="L91" s="37"/>
-      <c r="M91" s="32">
-        <v>139</v>
+      <c r="M91" s="55">
+        <v>140</v>
       </c>
       <c r="N91" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O91" s="24" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P91" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q91" s="31" t="s">
         <v>20</v>
@@ -5829,22 +5842,24 @@
       <c r="F92" s="46"/>
       <c r="G92" s="47"/>
       <c r="L92" s="37"/>
-      <c r="M92" s="55">
-        <v>140</v>
+      <c r="M92" s="32">
+        <v>139</v>
       </c>
       <c r="N92" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O92" s="24" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P92" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q92" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R92" s="33"/>
+        <v>24</v>
+      </c>
+      <c r="Q92" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="R92" s="33" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B93" s="41">
@@ -5867,7 +5882,7 @@
         <v>335</v>
       </c>
       <c r="O93" s="24" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P93" s="24" t="s">
         <v>24</v>
@@ -5891,17 +5906,17 @@
       <c r="F94" s="46"/>
       <c r="G94" s="47"/>
       <c r="L94" s="37"/>
-      <c r="M94" s="32">
-        <v>139</v>
+      <c r="M94" s="55">
+        <v>140</v>
       </c>
       <c r="N94" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O94" s="24" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P94" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q94" s="31" t="s">
         <v>20</v>
@@ -5929,7 +5944,7 @@
         <v>335</v>
       </c>
       <c r="O95" s="24" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P95" s="24" t="s">
         <v>24</v>
@@ -5960,7 +5975,7 @@
         <v>335</v>
       </c>
       <c r="O96" s="24" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P96" s="24" t="s">
         <v>19</v>
@@ -5984,14 +5999,14 @@
       <c r="F97" s="46"/>
       <c r="G97" s="47"/>
       <c r="L97" s="37"/>
-      <c r="M97" s="55">
-        <v>140</v>
+      <c r="M97" s="32">
+        <v>139</v>
       </c>
       <c r="N97" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O97" s="24" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P97" s="24" t="s">
         <v>24</v>
@@ -6015,17 +6030,17 @@
       <c r="F98" s="46"/>
       <c r="G98" s="47"/>
       <c r="L98" s="37"/>
-      <c r="M98" s="55">
-        <v>140</v>
+      <c r="M98" s="32">
+        <v>139</v>
       </c>
       <c r="N98" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O98" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P98" s="24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q98" s="31" t="s">
         <v>20</v>
@@ -6046,14 +6061,14 @@
       <c r="F99" s="46"/>
       <c r="G99" s="47"/>
       <c r="L99" s="37"/>
-      <c r="M99" s="55">
-        <v>140</v>
+      <c r="M99" s="32">
+        <v>139</v>
       </c>
       <c r="N99" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O99" s="24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P99" s="24" t="s">
         <v>24</v>
@@ -6084,10 +6099,10 @@
         <v>335</v>
       </c>
       <c r="O100" s="24" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P100" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q100" s="31" t="s">
         <v>20</v>
@@ -6115,10 +6130,10 @@
         <v>335</v>
       </c>
       <c r="O101" s="24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P101" s="24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q101" s="31" t="s">
         <v>20</v>
@@ -6146,10 +6161,10 @@
         <v>335</v>
       </c>
       <c r="O102" s="24" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P102" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q102" s="31" t="s">
         <v>20</v>
@@ -6177,10 +6192,10 @@
         <v>335</v>
       </c>
       <c r="O103" s="24" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P103" s="24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q103" s="31" t="s">
         <v>20</v>
@@ -6208,10 +6223,10 @@
         <v>335</v>
       </c>
       <c r="O104" s="24" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P104" s="24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q104" s="31" t="s">
         <v>20</v>
@@ -6239,10 +6254,10 @@
         <v>335</v>
       </c>
       <c r="O105" s="24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P105" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q105" s="31" t="s">
         <v>20</v>
@@ -6270,7 +6285,7 @@
         <v>335</v>
       </c>
       <c r="O106" s="24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P106" s="24" t="s">
         <v>24</v>
@@ -6301,7 +6316,7 @@
         <v>335</v>
       </c>
       <c r="O107" s="24" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P107" s="24" t="s">
         <v>19</v>
@@ -6332,10 +6347,10 @@
         <v>335</v>
       </c>
       <c r="O108" s="24" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P108" s="24" t="s">
-        <v>336</v>
+        <v>19</v>
       </c>
       <c r="Q108" s="31" t="s">
         <v>20</v>
@@ -6363,10 +6378,10 @@
         <v>335</v>
       </c>
       <c r="O109" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P109" s="24" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="Q109" s="31" t="s">
         <v>20</v>
@@ -6387,14 +6402,14 @@
       <c r="F110" s="46"/>
       <c r="G110" s="47"/>
       <c r="L110" s="37"/>
-      <c r="M110" s="32">
-        <v>139</v>
+      <c r="M110" s="55">
+        <v>140</v>
       </c>
       <c r="N110" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O110" s="24" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P110" s="24" t="s">
         <v>24</v>
@@ -6418,17 +6433,17 @@
       <c r="F111" s="46"/>
       <c r="G111" s="47"/>
       <c r="L111" s="37"/>
-      <c r="M111" s="32">
-        <v>139</v>
+      <c r="M111" s="55">
+        <v>140</v>
       </c>
       <c r="N111" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O111" s="24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P111" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q111" s="31" t="s">
         <v>20</v>
@@ -6449,17 +6464,17 @@
       <c r="F112" s="46"/>
       <c r="G112" s="47"/>
       <c r="L112" s="37"/>
-      <c r="M112" s="32">
-        <v>139</v>
+      <c r="M112" s="55">
+        <v>140</v>
       </c>
       <c r="N112" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O112" s="24" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P112" s="24" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="Q112" s="31" t="s">
         <v>20</v>
@@ -6480,17 +6495,17 @@
       <c r="F113" s="46"/>
       <c r="G113" s="47"/>
       <c r="L113" s="37"/>
-      <c r="M113" s="32">
-        <v>139</v>
+      <c r="M113" s="55">
+        <v>140</v>
       </c>
       <c r="N113" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O113" s="24" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P113" s="24" t="s">
-        <v>16</v>
+        <v>337</v>
       </c>
       <c r="Q113" s="31" t="s">
         <v>20</v>
@@ -6511,17 +6526,17 @@
       <c r="F114" s="46"/>
       <c r="G114" s="47"/>
       <c r="L114" s="37"/>
-      <c r="M114" s="55">
-        <v>140</v>
+      <c r="M114" s="32">
+        <v>139</v>
       </c>
       <c r="N114" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O114" s="24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P114" s="24" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="Q114" s="31" t="s">
         <v>20</v>
@@ -6542,14 +6557,14 @@
       <c r="F115" s="46"/>
       <c r="G115" s="47"/>
       <c r="L115" s="37"/>
-      <c r="M115" s="55">
-        <v>140</v>
+      <c r="M115" s="32">
+        <v>139</v>
       </c>
       <c r="N115" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O115" s="24" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P115" s="24" t="s">
         <v>24</v>
@@ -6580,10 +6595,10 @@
         <v>335</v>
       </c>
       <c r="O116" s="24" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P116" s="24" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q116" s="31" t="s">
         <v>20</v>
@@ -6604,17 +6619,17 @@
       <c r="F117" s="46"/>
       <c r="G117" s="47"/>
       <c r="L117" s="37"/>
-      <c r="M117" s="55">
-        <v>140</v>
+      <c r="M117" s="32">
+        <v>139</v>
       </c>
       <c r="N117" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O117" s="24" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P117" s="24" t="s">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="Q117" s="31" t="s">
         <v>20</v>
@@ -6642,7 +6657,7 @@
         <v>335</v>
       </c>
       <c r="O118" s="24" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P118" s="24" t="s">
         <v>268</v>
@@ -6673,7 +6688,7 @@
         <v>335</v>
       </c>
       <c r="O119" s="24" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P119" s="24" t="s">
         <v>24</v>
@@ -6697,14 +6712,14 @@
       <c r="F120" s="46"/>
       <c r="G120" s="47"/>
       <c r="L120" s="37"/>
-      <c r="M120" s="55">
-        <v>140</v>
+      <c r="M120" s="32">
+        <v>139</v>
       </c>
       <c r="N120" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O120" s="24" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P120" s="24" t="s">
         <v>24</v>
@@ -6735,10 +6750,10 @@
         <v>335</v>
       </c>
       <c r="O121" s="24" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P121" s="24" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="Q121" s="31" t="s">
         <v>20</v>
@@ -6766,10 +6781,10 @@
         <v>335</v>
       </c>
       <c r="O122" s="24" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P122" s="24" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="Q122" s="31" t="s">
         <v>20</v>
@@ -6797,7 +6812,7 @@
         <v>335</v>
       </c>
       <c r="O123" s="24" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P123" s="24" t="s">
         <v>24</v>
@@ -6828,10 +6843,10 @@
         <v>335</v>
       </c>
       <c r="O124" s="24" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P124" s="24" t="s">
-        <v>338</v>
+        <v>24</v>
       </c>
       <c r="Q124" s="31" t="s">
         <v>20</v>
@@ -6859,7 +6874,7 @@
         <v>335</v>
       </c>
       <c r="O125" s="24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P125" s="24" t="s">
         <v>24</v>
@@ -6890,7 +6905,7 @@
         <v>335</v>
       </c>
       <c r="O126" s="24" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P126" s="24" t="s">
         <v>24</v>
@@ -6921,10 +6936,10 @@
         <v>335</v>
       </c>
       <c r="O127" s="24" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P127" s="24" t="s">
-        <v>338</v>
+        <v>24</v>
       </c>
       <c r="Q127" s="31" t="s">
         <v>20</v>
@@ -6952,10 +6967,10 @@
         <v>335</v>
       </c>
       <c r="O128" s="24" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P128" s="24" t="s">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="Q128" s="31" t="s">
         <v>20</v>
@@ -6983,10 +6998,10 @@
         <v>335</v>
       </c>
       <c r="O129" s="24" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P129" s="24" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="Q129" s="31" t="s">
         <v>20</v>
@@ -7014,7 +7029,7 @@
         <v>335</v>
       </c>
       <c r="O130" s="24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P130" s="24" t="s">
         <v>24</v>
@@ -7045,10 +7060,10 @@
         <v>335</v>
       </c>
       <c r="O131" s="24" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P131" s="24" t="s">
-        <v>24</v>
+        <v>338</v>
       </c>
       <c r="Q131" s="31" t="s">
         <v>20</v>
@@ -7069,19 +7084,19 @@
       <c r="F132" s="46"/>
       <c r="G132" s="47"/>
       <c r="L132" s="37"/>
-      <c r="M132" s="32">
-        <v>10</v>
+      <c r="M132" s="55">
+        <v>140</v>
       </c>
       <c r="N132" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O132" s="24" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P132" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q132" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q132" s="31" t="s">
         <v>20</v>
       </c>
       <c r="R132" s="33"/>
@@ -7100,24 +7115,24 @@
       <c r="F133" s="46"/>
       <c r="G133" s="47"/>
       <c r="L133" s="37"/>
-      <c r="M133" s="32">
-        <v>1</v>
+      <c r="M133" s="55">
+        <v>140</v>
       </c>
       <c r="N133" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O133" s="24" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="P133" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q133" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q133" s="31" t="s">
         <v>20</v>
       </c>
       <c r="R133" s="33"/>
     </row>
-    <row r="134" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B134" s="41">
         <v>126</v>
       </c>
@@ -7130,23 +7145,23 @@
       <c r="E134" s="24"/>
       <c r="F134" s="46"/>
       <c r="G134" s="47"/>
-      <c r="L134" s="38"/>
-      <c r="M134" s="81">
-        <v>2</v>
-      </c>
-      <c r="N134" s="82" t="s">
+      <c r="L134" s="37"/>
+      <c r="M134" s="55">
+        <v>140</v>
+      </c>
+      <c r="N134" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="O134" s="82" t="s">
-        <v>341</v>
-      </c>
-      <c r="P134" s="82" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q134" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="R134" s="52"/>
+      <c r="O134" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="P134" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q134" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="33"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B135" s="41">
@@ -7161,25 +7176,23 @@
       <c r="E135" s="24"/>
       <c r="F135" s="46"/>
       <c r="G135" s="47"/>
-      <c r="L135" s="51"/>
-      <c r="M135" s="43">
-        <v>141</v>
-      </c>
-      <c r="N135" s="56" t="s">
-        <v>346</v>
-      </c>
-      <c r="O135" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="P135" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q135" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="R135" s="49" t="s">
-        <v>359</v>
-      </c>
+      <c r="L135" s="37"/>
+      <c r="M135" s="55">
+        <v>140</v>
+      </c>
+      <c r="N135" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O135" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="P135" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q135" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R135" s="33"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B136" s="45">
@@ -7196,23 +7209,21 @@
       <c r="G136" s="47"/>
       <c r="L136" s="37"/>
       <c r="M136" s="32">
-        <v>135</v>
-      </c>
-      <c r="N136" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="O136" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="P136" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q136" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="R136" s="33" t="s">
-        <v>359</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="N136" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O136" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="P136" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q136" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R136" s="33"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B137" s="41">
@@ -7229,25 +7240,23 @@
       <c r="G137" s="47"/>
       <c r="L137" s="37"/>
       <c r="M137" s="32">
-        <v>142</v>
-      </c>
-      <c r="N137" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="O137" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="P137" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q137" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="R137" s="33" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N137" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O137" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="P137" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q137" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R137" s="33"/>
+    </row>
+    <row r="138" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B138" s="41">
         <v>130</v>
       </c>
@@ -7260,23 +7269,23 @@
       <c r="E138" s="24"/>
       <c r="F138" s="46"/>
       <c r="G138" s="47"/>
-      <c r="L138" s="37"/>
-      <c r="M138" s="98">
-        <v>144</v>
-      </c>
-      <c r="N138" s="99" t="s">
-        <v>346</v>
-      </c>
-      <c r="O138" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="P138" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q138" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="R138" s="100"/>
+      <c r="L138" s="38"/>
+      <c r="M138" s="81">
+        <v>2</v>
+      </c>
+      <c r="N138" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="O138" s="82" t="s">
+        <v>341</v>
+      </c>
+      <c r="P138" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q138" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="R138" s="52"/>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B139" s="45">
@@ -7291,23 +7300,25 @@
       <c r="E139" s="24"/>
       <c r="F139" s="46"/>
       <c r="G139" s="47"/>
-      <c r="L139" s="37"/>
-      <c r="M139" s="32">
-        <v>143</v>
-      </c>
-      <c r="N139" s="31" t="s">
+      <c r="L139" s="51"/>
+      <c r="M139" s="43">
+        <v>141</v>
+      </c>
+      <c r="N139" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="O139" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="P139" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q139" s="31" t="s">
+      <c r="O139" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="P139" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q139" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R139" s="33"/>
+      <c r="R139" s="49" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B140" s="41">
@@ -7324,21 +7335,23 @@
       <c r="G140" s="47"/>
       <c r="L140" s="37"/>
       <c r="M140" s="32">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N140" s="31" t="s">
         <v>346</v>
       </c>
       <c r="O140" s="31" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="P140" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q140" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R140" s="33"/>
+        <v>17</v>
+      </c>
+      <c r="R140" s="33" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B141" s="41">
@@ -7355,21 +7368,23 @@
       <c r="G141" s="47"/>
       <c r="L141" s="37"/>
       <c r="M141" s="32">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="N141" s="31" t="s">
         <v>346</v>
       </c>
       <c r="O141" s="31" t="s">
-        <v>21</v>
+        <v>342</v>
       </c>
       <c r="P141" s="31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q141" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R141" s="33"/>
+        <v>17</v>
+      </c>
+      <c r="R141" s="33" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="142" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B142" s="45">
@@ -7385,79 +7400,155 @@
       <c r="F142" s="60"/>
       <c r="G142" s="61"/>
       <c r="L142" s="37"/>
-      <c r="M142" s="32">
-        <v>136</v>
-      </c>
-      <c r="N142" s="31" t="s">
+      <c r="M142" s="98">
+        <v>144</v>
+      </c>
+      <c r="N142" s="99" t="s">
         <v>346</v>
       </c>
-      <c r="O142" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="P142" s="31" t="s">
+      <c r="O142" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="P142" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="Q142" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R142" s="33"/>
+      <c r="Q142" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="R142" s="100"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L143" s="37"/>
       <c r="M143" s="32">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N143" s="31" t="s">
         <v>346</v>
       </c>
       <c r="O143" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P143" s="31" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="Q143" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R143" s="33"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L144" s="37"/>
       <c r="M144" s="32">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N144" s="31" t="s">
         <v>346</v>
       </c>
       <c r="O144" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P144" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q144" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R144" s="33"/>
+    </row>
+    <row r="145" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L145" s="37"/>
+      <c r="M145" s="32">
+        <v>137</v>
+      </c>
+      <c r="N145" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="O145" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P145" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q145" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R145" s="33"/>
+    </row>
+    <row r="146" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L146" s="37"/>
+      <c r="M146" s="32">
+        <v>136</v>
+      </c>
+      <c r="N146" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="O146" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="P146" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q146" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R146" s="33"/>
+    </row>
+    <row r="147" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L147" s="37"/>
+      <c r="M147" s="32">
+        <v>140</v>
+      </c>
+      <c r="N147" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="O147" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="P147" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q147" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R147" s="33"/>
+    </row>
+    <row r="148" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L148" s="37"/>
+      <c r="M148" s="32">
+        <v>140</v>
+      </c>
+      <c r="N148" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="O148" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="P144" s="31" t="s">
+      <c r="P148" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="Q144" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R144" s="33"/>
-    </row>
-    <row r="145" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L145" s="38"/>
-      <c r="M145" s="83">
+      <c r="Q148" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R148" s="33"/>
+    </row>
+    <row r="149" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L149" s="38"/>
+      <c r="M149" s="83">
         <v>145</v>
       </c>
-      <c r="N145" s="84" t="s">
+      <c r="N149" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="O145" s="84" t="s">
+      <c r="O149" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="P145" s="84" t="s">
+      <c r="P149" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q145" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="R145" s="101"/>
+      <c r="Q149" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="R149" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Compra Cartera/Mapeos_CON_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_CON_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="373">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1297,13 +1297,56 @@
   </si>
   <si>
     <t>NUMERIC(8,4)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Upsert </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CON_SE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RV_FNRO</t>
+    </r>
+  </si>
+  <si>
+    <t>ID_PRCDD_FREC_PAG_CAP</t>
+  </si>
+  <si>
+    <t>ID_PRCDD_FREC_PAG_INTR</t>
+  </si>
+  <si>
+    <t>ID_TIP_PLZ</t>
+  </si>
+  <si>
+    <t>PLZ</t>
+  </si>
+  <si>
+    <t>MOD_INTR</t>
+  </si>
+  <si>
+    <t>FEC_ESP_TER_CON</t>
+  </si>
+  <si>
+    <t>NUMERIC(6,0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1469,6 +1512,12 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2944,7 +2993,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2952,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R149"/>
+  <dimension ref="B1:R155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K43" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+    <sheetView tabSelected="1" topLeftCell="L65" workbookViewId="0">
+      <selection activeCell="O144" sqref="O74:O144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7208,17 +7257,17 @@
       <c r="F136" s="46"/>
       <c r="G136" s="47"/>
       <c r="L136" s="37"/>
-      <c r="M136" s="32">
-        <v>10</v>
+      <c r="M136" s="55">
+        <v>139</v>
       </c>
       <c r="N136" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O136" s="24" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="P136" s="24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q136" s="24" t="s">
         <v>20</v>
@@ -7239,24 +7288,24 @@
       <c r="F137" s="46"/>
       <c r="G137" s="47"/>
       <c r="L137" s="37"/>
-      <c r="M137" s="32">
-        <v>1</v>
+      <c r="M137" s="55">
+        <v>139</v>
       </c>
       <c r="N137" s="24" t="s">
         <v>335</v>
       </c>
       <c r="O137" s="24" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="P137" s="24" t="s">
-        <v>338</v>
+        <v>16</v>
       </c>
       <c r="Q137" s="24" t="s">
         <v>20</v>
       </c>
       <c r="R137" s="33"/>
     </row>
-    <row r="138" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B138" s="41">
         <v>130</v>
       </c>
@@ -7269,23 +7318,23 @@
       <c r="E138" s="24"/>
       <c r="F138" s="46"/>
       <c r="G138" s="47"/>
-      <c r="L138" s="38"/>
-      <c r="M138" s="81">
-        <v>2</v>
-      </c>
-      <c r="N138" s="82" t="s">
+      <c r="L138" s="37"/>
+      <c r="M138" s="55">
+        <v>139</v>
+      </c>
+      <c r="N138" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="O138" s="82" t="s">
-        <v>341</v>
-      </c>
-      <c r="P138" s="82" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q138" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="R138" s="52"/>
+      <c r="O138" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="P138" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q138" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R138" s="33"/>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B139" s="45">
@@ -7300,25 +7349,23 @@
       <c r="E139" s="24"/>
       <c r="F139" s="46"/>
       <c r="G139" s="47"/>
-      <c r="L139" s="51"/>
-      <c r="M139" s="43">
-        <v>141</v>
-      </c>
-      <c r="N139" s="56" t="s">
-        <v>346</v>
-      </c>
-      <c r="O139" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="P139" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q139" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="R139" s="49" t="s">
-        <v>359</v>
-      </c>
+      <c r="L139" s="37"/>
+      <c r="M139" s="55">
+        <v>140</v>
+      </c>
+      <c r="N139" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O139" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="P139" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q139" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R139" s="33"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B140" s="41">
@@ -7334,24 +7381,22 @@
       <c r="F140" s="46"/>
       <c r="G140" s="47"/>
       <c r="L140" s="37"/>
-      <c r="M140" s="32">
-        <v>135</v>
-      </c>
-      <c r="N140" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="O140" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="P140" s="31" t="s">
+      <c r="M140" s="55">
+        <v>140</v>
+      </c>
+      <c r="N140" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O140" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="P140" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Q140" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="R140" s="33" t="s">
-        <v>359</v>
-      </c>
+      <c r="Q140" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R140" s="33"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B141" s="41">
@@ -7367,24 +7412,22 @@
       <c r="F141" s="46"/>
       <c r="G141" s="47"/>
       <c r="L141" s="37"/>
-      <c r="M141" s="32">
-        <v>142</v>
-      </c>
-      <c r="N141" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="O141" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="P141" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q141" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="R141" s="33" t="s">
-        <v>359</v>
-      </c>
+      <c r="M141" s="55">
+        <v>140</v>
+      </c>
+      <c r="N141" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O141" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="P141" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q141" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R141" s="33"/>
     </row>
     <row r="142" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B142" s="45">
@@ -7400,155 +7443,275 @@
       <c r="F142" s="60"/>
       <c r="G142" s="61"/>
       <c r="L142" s="37"/>
-      <c r="M142" s="98">
-        <v>144</v>
-      </c>
-      <c r="N142" s="99" t="s">
-        <v>346</v>
-      </c>
-      <c r="O142" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="P142" s="99" t="s">
+      <c r="M142" s="32">
+        <v>10</v>
+      </c>
+      <c r="N142" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="O142" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="P142" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q142" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="R142" s="100"/>
+      <c r="Q142" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R142" s="33"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L143" s="37"/>
       <c r="M143" s="32">
-        <v>143</v>
-      </c>
-      <c r="N143" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N143" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O143" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="P143" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q143" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R143" s="33"/>
+    </row>
+    <row r="144" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L144" s="38"/>
+      <c r="M144" s="81">
+        <v>2</v>
+      </c>
+      <c r="N144" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="O144" s="82" t="s">
+        <v>341</v>
+      </c>
+      <c r="P144" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q144" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="R144" s="52"/>
+    </row>
+    <row r="145" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L145" s="51"/>
+      <c r="M145" s="43">
+        <v>141</v>
+      </c>
+      <c r="N145" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="O143" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="P143" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q143" s="31" t="s">
+      <c r="O145" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="P145" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q145" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R143" s="33"/>
-    </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L144" s="37"/>
-      <c r="M144" s="32">
-        <v>138</v>
-      </c>
-      <c r="N144" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="O144" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P144" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q144" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R144" s="33"/>
-    </row>
-    <row r="145" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L145" s="37"/>
-      <c r="M145" s="32">
-        <v>137</v>
-      </c>
-      <c r="N145" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="O145" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P145" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q145" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R145" s="33"/>
+      <c r="R145" s="49" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="37"/>
       <c r="M146" s="32">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N146" s="31" t="s">
         <v>346</v>
       </c>
       <c r="O146" s="31" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="P146" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q146" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R146" s="33"/>
+        <v>17</v>
+      </c>
+      <c r="R146" s="33" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L147" s="37"/>
       <c r="M147" s="32">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N147" s="31" t="s">
         <v>346</v>
       </c>
       <c r="O147" s="31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P147" s="31" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="Q147" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R147" s="33"/>
+        <v>17</v>
+      </c>
+      <c r="R147" s="33" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="37"/>
-      <c r="M148" s="32">
-        <v>140</v>
-      </c>
-      <c r="N148" s="31" t="s">
+      <c r="M148" s="98">
+        <v>144</v>
+      </c>
+      <c r="N148" s="99" t="s">
         <v>346</v>
       </c>
-      <c r="O148" s="31" t="s">
+      <c r="O148" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="P148" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q148" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="R148" s="100"/>
+    </row>
+    <row r="149" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L149" s="37"/>
+      <c r="M149" s="32">
+        <v>143</v>
+      </c>
+      <c r="N149" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="O149" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="P149" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q149" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="R149" s="33"/>
+    </row>
+    <row r="150" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L150" s="37"/>
+      <c r="M150" s="32">
+        <v>138</v>
+      </c>
+      <c r="N150" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="O150" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P150" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q150" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R150" s="33"/>
+    </row>
+    <row r="151" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L151" s="37"/>
+      <c r="M151" s="32">
+        <v>137</v>
+      </c>
+      <c r="N151" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="O151" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P151" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q151" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R151" s="33"/>
+    </row>
+    <row r="152" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L152" s="37"/>
+      <c r="M152" s="32">
+        <v>136</v>
+      </c>
+      <c r="N152" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="O152" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="P152" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q152" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R152" s="33"/>
+    </row>
+    <row r="153" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L153" s="37"/>
+      <c r="M153" s="32">
+        <v>140</v>
+      </c>
+      <c r="N153" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="O153" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="P153" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q153" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R153" s="33"/>
+    </row>
+    <row r="154" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L154" s="37"/>
+      <c r="M154" s="32">
+        <v>140</v>
+      </c>
+      <c r="N154" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="O154" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="P148" s="31" t="s">
+      <c r="P154" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="Q148" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R148" s="33"/>
-    </row>
-    <row r="149" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L149" s="38"/>
-      <c r="M149" s="83">
+      <c r="Q154" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R154" s="33"/>
+    </row>
+    <row r="155" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L155" s="38"/>
+      <c r="M155" s="83">
         <v>145</v>
       </c>
-      <c r="N149" s="84" t="s">
+      <c r="N155" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="O149" s="84" t="s">
+      <c r="O155" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="P149" s="84" t="s">
+      <c r="P155" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q149" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="R149" s="101"/>
+      <c r="Q155" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="R155" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="8">
